--- a/数据分析/项目统计信息表（周天驰）.xlsx
+++ b/数据分析/项目统计信息表（周天驰）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="2320" windowHeight="10900" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="2320" windowHeight="4140" tabRatio="912" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="项目信息统计" sheetId="7" r:id="rId1"/>
@@ -15,13 +15,15 @@
     <sheet name="pylearn2" sheetId="5" r:id="rId6"/>
     <sheet name="dmlc mxnet" sheetId="1" r:id="rId7"/>
     <sheet name="Scikit-learn" sheetId="6" r:id="rId8"/>
+    <sheet name="新namp" sheetId="9" r:id="rId9"/>
+    <sheet name="信息统计表" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="674">
   <si>
     <t>项目名称</t>
   </si>
@@ -196,10 +198,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#4694</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>否</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -627,6 +625,256 @@
   </si>
   <si>
     <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2days</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>四级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>指针指向已经被回收的内存单元导致访问冲突，系统奔溃</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换代码使用一个简单的固定数组指针来替换链表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>#690</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10days</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>当namp进行扫描时，zenmap无法创建临时文件来存储输出</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>#639</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1days</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>给zenmap增加一个没有找到临时文件时捕捉错误的功能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用非ascll路径来修复崩溃</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>#638</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>24days</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>namp安装路径不符合unicode编码规则</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>#600</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10days</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>npcap中的winpcap与Sonicwall Global VPN冲突</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过一个星期没有回复解决方案，提问者就关闭了</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>#492</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>#587</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论者提出的几种可能经测试都是不正确的</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>#594</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>这几个没有填写内容的bug与很多个bug有极大相似程度，之后再来完善</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>#574</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ospf库中字节顺序错误</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整了代码中的字节顺序</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3months（1days解决了）之后没有关闭，直到#743被提出</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>months</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>#571</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>不清楚</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>未解决</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>namp项目中有很多安装了npcap导致无法正常启动WiFi的情况</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小结：</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>一共98bug</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>#525</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3days</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>官方忽略了测试版的功能更新</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载最新版的nmap-service-probes去修复这个bug</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>#520</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>四级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知，安装日志和网络启动项都正常</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scikit-learn</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/scikit-learn/scikit-learn</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug 分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug Npcap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#814</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>64位的进程缺失了高位的地址</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改了格式限定符</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>#</t>
     </r>
     <r>
@@ -640,6 +888,22 @@
       </rPr>
       <t>721</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>721</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -657,139 +921,128 @@
       </rPr>
       <t>2days</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>四级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个转储文件奔溃导致系统时间被修改</t>
+  </si>
+  <si>
+    <t>Unset global Loopback Open pointer when loopback adapter is unloaded</t>
+  </si>
+  <si>
+    <t>#690</t>
+  </si>
+  <si>
+    <t>10days</t>
   </si>
   <si>
     <t>二级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换代码使用一个简单的固定数组指针来替换链表</t>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>594</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提问者没有回复参与者，所以问题关闭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同样为npcap在win10环境下与一些工具发生冲突</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>592</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1days</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过2个星期没有回复，就直接关闭了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1days</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>指针指向已经被回收的内存单元导致访问冲突，系统奔溃</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>替换代码使用一个简单的固定数组指针来替换链表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>#690</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>10days</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>当namp进行扫描时，zenmap无法创建临时文件来存储输出</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>#639</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1days</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>给zenmap增加一个没有找到临时文件时捕捉错误的功能</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用非ascll路径来修复崩溃</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>#638</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>24days</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>namp安装路径不符合unicode编码规则</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>#600</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>10days</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>npcap中的winpcap与Sonicwall Global VPN冲突</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>超过一个星期没有回复解决方案，提问者就关闭了</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>#492</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#587</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后提问者自己重装了系统，冲突就解决了.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论者提出的几种可能经测试都是不正确的</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>#594</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>这几个没有填写内容的bug与很多个bug有极大相似程度，之后再来完善</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>#574</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ospf库中字节顺序错误</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整了代码中的字节顺序</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3months（1days解决了）之后没有关闭，直到#743被提出</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -806,63 +1059,2796 @@
       </rPr>
       <t>months</t>
     </r>
+  </si>
+  <si>
+    <t>评论者提出的几种可能经测试都是不正确的</t>
+  </si>
+  <si>
+    <t>最后提问者自己重装了系统，冲突就解决了.</t>
+  </si>
+  <si>
+    <t>最后提问者自己重装了系统，冲突就解决了.</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>584</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>days</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件和npcap存在冲突</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>第一个人卸载了n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pcap 第二个人一个个卸载软件，终于找到了冲突问题，但是他卸载的软件为他必须使用的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>582</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>days</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换了其他3款适配器，蓝屏现象解决</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>580</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>days</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用时间戳在发送消息的之前调整服务器时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2个方案：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>升级成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>win8或者win10   2.卸载2个过滤器</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>#571</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸载Junos Pulse，并将其列入该项目的不兼容列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>570</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>weeks</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知的驱动程序之间的冲突</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新了无线设备驱动程序（不是回答者提出的解决方案，是提问者无意间更新了驱动，bug就消失了）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>567</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Junos Pulse与本工具不兼容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具与Sniffer Filter Driver不兼容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸载Sniffer Filter Driver，并将其列入该项目的不兼容列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>31days（提问者回复迟了）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#565</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>win8.1系统的问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#558</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载最新版本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提问者未更新至最新版本。老版本存在兼容性问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#544</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提问者未更新至最新版本。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新版本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#435</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭了wireshark所有进程 然后启用“sc stop npf” ，bug解决</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>不清楚</t>
+    <t>#520</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知，安装日志和网络启动项都正常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭了wireshark所有进程 然后启用“sc stop npf” ，bug解决</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#512</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼容性问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新版本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#501</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具开发者已经放弃使用这个入口函数了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把这个改动加入到说明文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#492</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5months</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>namp官方没有购买ev证书，而更新之后的win10会检查这个证书</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>官方购买了这个证书，并测试发布新版</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#472</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>37days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在代码中留下了错误的语句</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>去除不必要的断言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加了功能，使得nping可以在Windows中使用npcap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#437</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#430</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与Killer Network Manager冲突</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装其他替代产品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2months</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>win7系统本身存在的缺陷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放弃在所有操作系统加入此功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#409</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在新版本修复了bug</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#404</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动添加下环境变量或者在安装软件时选择检查环境变量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#403</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与NPFInstall.exe -i不兼容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在新版本修复了bug</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用最新版</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>49条讨论，问题过于复杂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复签名错误，使得可以运用大部分平台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#296</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装程序的逻辑问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复代码，改进安装程序的逻辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>others</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#773</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCAT SSL服务器问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改代码，修复服务器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#639</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在创建文件时添加处理错误的消息框，没有找到临时目录时捕获错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#638</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用非ascll路径来修复崩溃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>未解决</t>
+    <t>#591</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复在Ndiff的主机排序。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#559</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复Nping中的Npcap加载</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#535</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有得到更新的nbase_misc.c与重叠的标志</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>return所需要的值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#525</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复RDP检测</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#508</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果操作系统命名不符合苹果官方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改苹果操作系统的命名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#498</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcap-int.h最新版改变了pcap结构中的适配器成员的偏移量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新Nmap使用最新的libpcap 1.8.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复refguide indexterms再次使用联机帮助页面</t>
+  </si>
+  <si>
+    <t>2days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>由docbook XML（docs / refguide.xml）中的错误的&lt;indexterm&gt;元素引起的。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>55days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开，读写，写入配置文件的并发性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加代码修改文件的权限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加OpenSSL 1.1.0 pre5和以前版本的兼容性</t>
+  </si>
+  <si>
+    <t>#439</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>39days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼容性问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#417</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>indexterm转换为注释，但没有前面的换行符。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在新的一行重写nroff注释</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#345</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>55days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认的日志文件位置与可执行文件在同一个目录中，普通用户无法访问该文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在可写位置打开zenmap.exe.log</t>
+  </si>
+  <si>
+    <t>#340</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5months</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于授权包装器，Zenmap以root用户身份运行，因此无法访问用户的语言/区域设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#293</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下个版本修复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.添加$ lang变量的检查 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#275</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.用ScanProgressMeter替换反弹扫描中的时间。2.使用time_t代替long和double来保存正常运行时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#274</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenBSD的包丢失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值改为false</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#259</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>namp只支持lua5.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把lua的版本判断限定为5.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#242</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#237</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#235</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建缺失的文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解密失败，程序关闭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#229</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头文件解析的程序有设计上的漏洞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复Set-Cookie头文件的解析</t>
+  </si>
+  <si>
+    <t>#204</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nmap_dns发生了双重缓存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>官方推出补丁，根据缓存的功能，修复了错误和修剪的语义。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#201</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2months</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加代码，在构建.dmg安装程序时，复制ndiff.py和手册页。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#189</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同#88，仍在open状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#184</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连字符使用选项解析器无法识别的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在nping文档中使用‘-’连字符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#183</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加了对于vs2010版本中EOPNOTSUPP的检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nbase / nbase_winunix.h中没有定义EOPNOTSUPP标识符。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#166</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复namelen参数在Ncat中绑定的计算。</t>
+  </si>
+  <si>
+    <t>可能由不正确的sa_len或已绑定到地址的套接字引起。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#164</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在zenmap_wrapper.py中将包含“DYLD_LIBRARY_PATH”的行注释</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#161</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决与Windows X上的Zenmap架构不兼容的问题</t>
+  </si>
+  <si>
+    <t>兼容性问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#155</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5months</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新版本不存在该问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#154</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有添加检查确认功能是否为安全的呼叫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在新版本中加入检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#143</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6months</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加Ncat功能：如果父进程关闭了stdin，则尝试重新打开fd 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stdin关闭，第一个套接字调用创建一个值为0的套接字，引起fd0混乱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>140</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>months</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于DNS名称缓冲区，使用FQDN_LEN而不是MAXHOSTNAMELEN</t>
+  </si>
+  <si>
+    <t>基本上，任何时候，MAXHOSTNAMELEN用于引用或包含DNS名称，都被错误地使用。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>133</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>days</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加代码，修复在Zenmap中保存主机注释</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>131</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>days</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Solaris上修复配置错误的awk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>配置错误</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>130</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改代码，使得snmp-brute.nse现在是IPversion不可知的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nmap NSE libpcap没有得到传入的IPv6数据包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>124</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>days</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Solaris上修复地址检测。</t>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>122</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>120</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将TLS_EMPTY_RENEGOTIATION_INFO_SCSV添加到TLSSessionReq探针。</t>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>months</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>117</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>years3.5months</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加{cisco}读命令，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>113</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>111</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>103</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>97</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>93</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>70</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>54</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>39</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>months</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcap_findalldevs错误导致WinPcap崩溃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加代码，修复pcap_findalldevs错误的WinPcap崩溃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>telnet-brute.nse脚本对于某些目标（如Cisco IOS）尚未正常工作。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有利于lua模式下恢复telnet-brute的lpeg转换</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>months</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让http-server-header处理一个空的服务器头</t>
+  </si>
+  <si>
+    <t>13days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6months</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签服务tcpwrapped处理超时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加代码调整标签服务tcpwrapped处理超时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nmap.h更改时，强制nmap.rc重新生成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新构建时，系统没有正确更新nmap.exe文件版本（Windows属性）。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8months</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复FreeBSD 10.0及更高版本的原始数据包发送。</t>
+  </si>
+  <si>
+    <t>FreeBSD自身问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Windows上构建Zenmap时，包含hicolor主题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows安装程序需要额外的下载资源</t>
+  </si>
+  <si>
+    <t>1months</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2years 2months</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#810 仍旧open</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复libdnet-stripped中的NULL指针取消引用</t>
+  </si>
+  <si>
+    <t>在libdnet-stripped引用了空指针</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9months</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>return语句返回一个零值，而不是一个表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改return语句，返回一个表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>days</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPv6操作系统检测不使用nmap-os-db。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载操作系统指纹之前检查地址系列</t>
+  </si>
+  <si>
+    <t>退回到“getnameinfo”，用于反向DNS中的截断回复</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0months</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应于PTR查询返回太多RR的服务器。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>years3months</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Windows上出现错误时打印错误消息</t>
+  </si>
+  <si>
+    <t>在Windows上出现错误时没有提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>months</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>服务器报告错误413或414，减小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http-form-fuzzer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最大长度</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>服务器拒绝处理大型请求（U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RL过大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一、不兼容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>namp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ime</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ommit</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>changed files</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">add </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>600</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0days</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#584</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>days</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#582</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#571</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#570</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1weeks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#567</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>31days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#565</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#558</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#512</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#430</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#403</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个具有多个域名的IP的错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老版本存在bug使得捕获数据畸形</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r5版本的bug引起的数据包异常在较新版本没有修复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>签名错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#439</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>39days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#161</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fchollet/keras</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>keras</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4694</t>
+  </si>
+  <si>
+    <t>#4694</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1days</t>
+  </si>
+  <si>
+    <t>lisa-lab/pylearn2</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>namp项目中有很多安装了npcap导致无法正常启动WiFi的情况</t>
+    <t>pylearn2</t>
+  </si>
+  <si>
+    <t>#744</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>months</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二、变量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nmap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ime</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ommit</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>changed files</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#814</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>days</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三、技术文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指针指向已经被回收的内存单元导致访问冲突，系统奔溃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>npcap中的winpcap与Sonicwall Global VPN冲突</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>小结：</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>一共98bug</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>#525</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>npcap和瑞昱网卡驱动程序存在冲突</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送回环消息时网络服务器时间没有调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in7最多支持14个过滤器，安装Npcap时已达到最大值</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#501</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#463</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#463</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3months</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四、设计缺陷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nmap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#580</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五、性能优化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>六、内存溢出，内存泄露</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>七、代码重构，代码结构优化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#594</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#592</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>31days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nmap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#587</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nmap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>572</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#572</t>
+  </si>
+  <si>
+    <t>八、操作系统本身的缺陷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#565</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#520</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#492</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5months</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#472</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>37days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#437</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#429</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#429</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2months</t>
+  </si>
+  <si>
+    <t>2months</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#409</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#404</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#339</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#339</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#335</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#315</t>
+  </si>
+  <si>
+    <t>#315</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#298</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>48days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zenmap崩溃，因为在扫描时无法创建一个临时文件来保存Nmap的输出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>九、编码问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3days</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>官方忽略了测试版的功能更新</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载最新版的nmap-service-probes去修复这个bug</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>#520</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>四级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>未知，安装日志和网络启动项都正常</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭了wireshark所有instances 然后启用“sc stop npf” ，bug解决</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十、文件的权限问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#449</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">以某种方式将pygtk软件包降级在Windows构建系统上，重新引入了这个bug。 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#293</t>
+  </si>
+  <si>
+    <t>9days</t>
+  </si>
+  <si>
+    <t>字符串的格式指令有问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#189</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十、软件配置错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十一、其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>months</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>months</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>35</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>35</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>months</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>37</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>37</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13days</t>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>45</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>45</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ylearn2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ug原因</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3months20days</t>
+  </si>
+  <si>
+    <t>3months20days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>仍在o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pen</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>仍在o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pen</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -882,12 +3868,14 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -895,6 +3883,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1036,15 +4025,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1123,10 +4121,70 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="超链接 2" xfId="3"/>
+    <cellStyle name="超链接 2 2" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
@@ -1398,7 +4456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="B13" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1449,10 +4507,10 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" t="s">
         <v>71</v>
-      </c>
-      <c r="L1" t="s">
-        <v>72</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
@@ -1472,10 +4530,10 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>73</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>74</v>
       </c>
       <c r="C2" s="2">
         <v>42613</v>
@@ -1487,7 +4545,7 @@
         <v>1911</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1534,7 +4592,7 @@
         <v>4732</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q3">
         <v>3617</v>
@@ -1545,7 +4603,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2">
         <v>42347</v>
@@ -1557,7 +4615,7 @@
         <v>3358</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1583,186 +4641,186 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>81</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>54</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>89</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>91</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>56</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>95</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>59</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>101</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>103</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>105</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>108</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>61</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1800,12 +4858,1835 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H140"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H134" sqref="H134"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33.25" style="29" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="29" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="29" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="29" customWidth="1"/>
+    <col min="6" max="7" width="8.6640625" style="29"/>
+    <col min="8" max="8" width="69.25" style="29" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="31" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" s="31" t="s">
+        <v>536</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>537</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>538</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>539</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="31" t="s">
+        <v>542</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="31" t="s">
+        <v>544</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="31" t="s">
+        <v>546</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="31" t="s">
+        <v>548</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="29">
+        <v>1</v>
+      </c>
+      <c r="E6" s="29">
+        <v>2</v>
+      </c>
+      <c r="F6" s="29">
+        <v>4</v>
+      </c>
+      <c r="G6" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="31" t="s">
+        <v>549</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="31" t="s">
+        <v>551</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="31" t="s">
+        <v>553</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="31" t="s">
+        <v>555</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="31" t="s">
+        <v>557</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="29">
+        <v>2</v>
+      </c>
+      <c r="E11" s="29">
+        <v>2</v>
+      </c>
+      <c r="F11" s="29">
+        <v>74</v>
+      </c>
+      <c r="G11" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="31" t="s">
+        <v>558</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>565</v>
+      </c>
+      <c r="D14" s="29">
+        <v>7</v>
+      </c>
+      <c r="E14" s="29">
+        <v>7</v>
+      </c>
+      <c r="F14" s="29">
+        <v>271</v>
+      </c>
+      <c r="G14" s="29">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="31" t="s">
+        <v>566</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="29">
+        <v>1</v>
+      </c>
+      <c r="E15" s="29">
+        <v>1</v>
+      </c>
+      <c r="F15" s="29">
+        <v>2</v>
+      </c>
+      <c r="G15" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="35" customFormat="1">
+      <c r="B16" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="D16" s="35">
+        <v>1</v>
+      </c>
+      <c r="E16" s="35">
+        <v>2</v>
+      </c>
+      <c r="F16" s="35">
+        <v>7</v>
+      </c>
+      <c r="G16" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="B17" s="31" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="B18" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>571</v>
+      </c>
+      <c r="D18" s="29">
+        <v>1</v>
+      </c>
+      <c r="E18" s="29">
+        <v>1</v>
+      </c>
+      <c r="F18" s="29">
+        <v>2</v>
+      </c>
+      <c r="G18" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21" s="31" t="s">
+        <v>577</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>578</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>580</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>581</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="B22" s="31" t="s">
+        <v>582</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>583</v>
+      </c>
+      <c r="D22" s="29">
+        <v>1</v>
+      </c>
+      <c r="E22" s="29">
+        <v>2</v>
+      </c>
+      <c r="F22" s="29">
+        <v>40</v>
+      </c>
+      <c r="G22" s="29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="31" t="s">
+        <v>592</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>593</v>
+      </c>
+      <c r="D23" s="29">
+        <v>1</v>
+      </c>
+      <c r="E23" s="29">
+        <v>2</v>
+      </c>
+      <c r="F23" s="29">
+        <v>26</v>
+      </c>
+      <c r="G23" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="31" t="s">
+        <v>594</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>595</v>
+      </c>
+      <c r="D24" s="29">
+        <v>1</v>
+      </c>
+      <c r="E24" s="29">
+        <v>4</v>
+      </c>
+      <c r="F24" s="29">
+        <v>33</v>
+      </c>
+      <c r="G24" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="35" t="s">
+        <v>390</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="29">
+        <v>2</v>
+      </c>
+      <c r="E26" s="29">
+        <v>5</v>
+      </c>
+      <c r="F26" s="29">
+        <v>49</v>
+      </c>
+      <c r="G26" s="29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" s="35" t="s">
+        <v>395</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="29">
+        <v>1</v>
+      </c>
+      <c r="E27" s="29">
+        <v>2</v>
+      </c>
+      <c r="F27" s="29">
+        <v>6</v>
+      </c>
+      <c r="G27" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" s="35" t="s">
+        <v>431</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="29">
+        <v>1</v>
+      </c>
+      <c r="E28" s="29">
+        <v>1</v>
+      </c>
+      <c r="F28" s="29">
+        <v>3</v>
+      </c>
+      <c r="G28" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="35" customFormat="1">
+      <c r="B29" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="35">
+        <v>1</v>
+      </c>
+      <c r="E29" s="35">
+        <v>3</v>
+      </c>
+      <c r="F29" s="35">
+        <v>39</v>
+      </c>
+      <c r="G29" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="35" customFormat="1">
+      <c r="B30" s="38" t="s">
+        <v>480</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="D30" s="35">
+        <v>1</v>
+      </c>
+      <c r="E30" s="35">
+        <v>1</v>
+      </c>
+      <c r="F30" s="35">
+        <v>20</v>
+      </c>
+      <c r="G30" s="35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="37" customFormat="1">
+      <c r="B31" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="D31" s="37">
+        <v>1</v>
+      </c>
+      <c r="E31" s="37">
+        <v>1</v>
+      </c>
+      <c r="F31" s="37">
+        <v>1</v>
+      </c>
+      <c r="G31" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="37" customFormat="1">
+      <c r="B32" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="37">
+        <v>1</v>
+      </c>
+      <c r="E32" s="37">
+        <v>2</v>
+      </c>
+      <c r="F32" s="37">
+        <v>20</v>
+      </c>
+      <c r="G32" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="37" customFormat="1">
+      <c r="B33" s="38"/>
+    </row>
+    <row r="34" spans="1:7" s="37" customFormat="1">
+      <c r="B34" s="38"/>
+    </row>
+    <row r="35" spans="1:7" s="37" customFormat="1">
+      <c r="B35" s="38"/>
+    </row>
+    <row r="36" spans="1:7" s="37" customFormat="1">
+      <c r="B36" s="38"/>
+    </row>
+    <row r="37" spans="1:7" s="37" customFormat="1">
+      <c r="B37" s="38"/>
+    </row>
+    <row r="38" spans="1:7" s="37" customFormat="1">
+      <c r="B38" s="38"/>
+    </row>
+    <row r="39" spans="1:7" s="35" customFormat="1"/>
+    <row r="40" spans="1:7">
+      <c r="A40" s="29" t="s">
+        <v>584</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>597</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>578</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>580</v>
+      </c>
+      <c r="F40" s="31" t="s">
+        <v>581</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="B41" s="29" t="s">
+        <v>590</v>
+      </c>
+      <c r="C41" s="29">
+        <v>1</v>
+      </c>
+      <c r="D41" s="29">
+        <v>1</v>
+      </c>
+      <c r="E41" s="29">
+        <v>2</v>
+      </c>
+      <c r="F41" s="29">
+        <v>89</v>
+      </c>
+      <c r="G41" s="29">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="29" t="s">
+        <v>596</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>577</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>578</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>580</v>
+      </c>
+      <c r="F52" s="31" t="s">
+        <v>581</v>
+      </c>
+      <c r="G52" s="31" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="B53" s="29" t="s">
+        <v>598</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>593</v>
+      </c>
+      <c r="D53" s="29">
+        <v>1</v>
+      </c>
+      <c r="E53" s="29">
+        <v>5</v>
+      </c>
+      <c r="F53" s="29">
+        <v>67</v>
+      </c>
+      <c r="G53" s="29">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="B54" s="29" t="s">
+        <v>616</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="B55" s="29" t="s">
+        <v>618</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>619</v>
+      </c>
+      <c r="D55" s="29">
+        <v>3</v>
+      </c>
+      <c r="E55" s="29">
+        <v>5</v>
+      </c>
+      <c r="F55" s="29">
+        <v>28</v>
+      </c>
+      <c r="G55" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="B56" s="29" t="s">
+        <v>631</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="B57" s="29" t="s">
+        <v>634</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="B58" s="29" t="s">
+        <v>638</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>639</v>
+      </c>
+      <c r="D58" s="29">
+        <v>3</v>
+      </c>
+      <c r="E58" s="29">
+        <v>4</v>
+      </c>
+      <c r="F58" s="29">
+        <v>12</v>
+      </c>
+      <c r="G58" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="B59" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="D59" s="29">
+        <v>2</v>
+      </c>
+      <c r="E59" s="29">
+        <v>3</v>
+      </c>
+      <c r="F59" s="29">
+        <v>107</v>
+      </c>
+      <c r="G59" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="B60" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" s="29">
+        <v>1</v>
+      </c>
+      <c r="E60" s="29">
+        <v>2</v>
+      </c>
+      <c r="F60" s="29">
+        <v>30</v>
+      </c>
+      <c r="G60" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="B61" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="29">
+        <v>3</v>
+      </c>
+      <c r="E61" s="29">
+        <v>5</v>
+      </c>
+      <c r="F61" s="29">
+        <v>30</v>
+      </c>
+      <c r="G61" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="B62" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="D62" s="29">
+        <v>1</v>
+      </c>
+      <c r="E62" s="29">
+        <v>2</v>
+      </c>
+      <c r="F62" s="29">
+        <v>8</v>
+      </c>
+      <c r="G62" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="B63" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="D63" s="29">
+        <v>1</v>
+      </c>
+      <c r="E63" s="29">
+        <v>2</v>
+      </c>
+      <c r="F63" s="29">
+        <v>58</v>
+      </c>
+      <c r="G63" s="29">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="B64" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="D64" s="29">
+        <v>1</v>
+      </c>
+      <c r="E64" s="29">
+        <v>2</v>
+      </c>
+      <c r="F64" s="29">
+        <v>64</v>
+      </c>
+      <c r="G64" s="29">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="35" customFormat="1">
+      <c r="B65" s="35" t="s">
+        <v>416</v>
+      </c>
+      <c r="C65" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" s="35">
+        <v>2</v>
+      </c>
+      <c r="E65" s="35">
+        <v>3</v>
+      </c>
+      <c r="F65" s="35">
+        <v>221</v>
+      </c>
+      <c r="G65" s="35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="35" customFormat="1">
+      <c r="B66" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="C66" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D66" s="35">
+        <v>1</v>
+      </c>
+      <c r="E66" s="35">
+        <v>9</v>
+      </c>
+      <c r="F66" s="35">
+        <v>37</v>
+      </c>
+      <c r="G66" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="35" customFormat="1">
+      <c r="B67" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="C67" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="D67" s="35">
+        <v>1</v>
+      </c>
+      <c r="E67" s="35">
+        <v>2</v>
+      </c>
+      <c r="F67" s="35">
+        <v>5</v>
+      </c>
+      <c r="G67" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="35" customFormat="1">
+      <c r="B68" s="36" t="s">
+        <v>455</v>
+      </c>
+      <c r="C68" s="36" t="s">
+        <v>456</v>
+      </c>
+      <c r="D68" s="35">
+        <v>2</v>
+      </c>
+      <c r="E68" s="35">
+        <v>9</v>
+      </c>
+      <c r="F68" s="35">
+        <v>28</v>
+      </c>
+      <c r="G68" s="35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="35" customFormat="1">
+      <c r="B69" s="38" t="s">
+        <v>483</v>
+      </c>
+      <c r="C69" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="D69" s="35">
+        <v>1</v>
+      </c>
+      <c r="E69" s="35">
+        <v>1</v>
+      </c>
+      <c r="F69" s="35">
+        <v>4</v>
+      </c>
+      <c r="G69" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="35" customFormat="1">
+      <c r="B70" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="C70" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="D70" s="35">
+        <v>1</v>
+      </c>
+      <c r="E70" s="35">
+        <v>1</v>
+      </c>
+      <c r="F70" s="35">
+        <v>2</v>
+      </c>
+      <c r="G70" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="37" customFormat="1">
+      <c r="B71" s="39" t="s">
+        <v>653</v>
+      </c>
+      <c r="C71" s="39" t="s">
+        <v>655</v>
+      </c>
+      <c r="D71" s="37">
+        <v>1</v>
+      </c>
+      <c r="E71" s="37">
+        <v>4</v>
+      </c>
+      <c r="F71" s="37">
+        <v>33</v>
+      </c>
+      <c r="G71" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="37" customFormat="1">
+      <c r="B72" s="40" t="s">
+        <v>656</v>
+      </c>
+      <c r="C72" s="40" t="s">
+        <v>658</v>
+      </c>
+      <c r="D72" s="37">
+        <v>1</v>
+      </c>
+      <c r="E72" s="37">
+        <v>1</v>
+      </c>
+      <c r="F72" s="37">
+        <v>23</v>
+      </c>
+      <c r="G72" s="37">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="35" customFormat="1">
+      <c r="B73" s="41" t="s">
+        <v>659</v>
+      </c>
+      <c r="C73" s="41" t="s">
+        <v>661</v>
+      </c>
+      <c r="D73" s="35">
+        <v>2</v>
+      </c>
+      <c r="E73" s="35">
+        <v>2</v>
+      </c>
+      <c r="F73" s="35">
+        <v>6</v>
+      </c>
+      <c r="G73" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="35" customFormat="1">
+      <c r="B74" s="38" t="s">
+        <v>665</v>
+      </c>
+      <c r="C74" s="38" t="s">
+        <v>537</v>
+      </c>
+      <c r="D74" s="38" t="s">
+        <v>538</v>
+      </c>
+      <c r="E74" s="38" t="s">
+        <v>539</v>
+      </c>
+      <c r="F74" s="38" t="s">
+        <v>581</v>
+      </c>
+      <c r="G74" s="38" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="37" customFormat="1">
+      <c r="B75" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C75" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D75" s="38">
+        <v>2</v>
+      </c>
+      <c r="E75" s="38">
+        <v>3</v>
+      </c>
+      <c r="F75" s="38">
+        <v>105</v>
+      </c>
+      <c r="G75" s="38">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="37" customFormat="1">
+      <c r="B76" s="38"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="38"/>
+    </row>
+    <row r="77" spans="1:7" s="37" customFormat="1">
+      <c r="B77" s="38"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+    </row>
+    <row r="78" spans="1:7" s="35" customFormat="1"/>
+    <row r="79" spans="1:7">
+      <c r="A79" s="29" t="s">
+        <v>599</v>
+      </c>
+      <c r="B79" s="31" t="s">
+        <v>577</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>578</v>
+      </c>
+      <c r="D79" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="E79" s="31" t="s">
+        <v>580</v>
+      </c>
+      <c r="F79" s="31" t="s">
+        <v>581</v>
+      </c>
+      <c r="G79" s="31" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="B80" s="31" t="s">
+        <v>621</v>
+      </c>
+      <c r="C80" s="31" t="s">
+        <v>620</v>
+      </c>
+      <c r="D80" s="29">
+        <v>1</v>
+      </c>
+      <c r="E80" s="29">
+        <v>3</v>
+      </c>
+      <c r="F80" s="29">
+        <v>53</v>
+      </c>
+      <c r="G80" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="B81" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="C81" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="D81" s="29">
+        <v>1</v>
+      </c>
+      <c r="E81" s="29">
+        <v>4</v>
+      </c>
+      <c r="F81" s="29">
+        <v>21</v>
+      </c>
+      <c r="G81" s="29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="B82" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="C82" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="D82" s="29">
+        <v>1</v>
+      </c>
+      <c r="E82" s="29">
+        <v>1</v>
+      </c>
+      <c r="F82" s="29">
+        <v>2</v>
+      </c>
+      <c r="G82" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="B83" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="C83" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="D83" s="29">
+        <v>1</v>
+      </c>
+      <c r="E83" s="29">
+        <v>20</v>
+      </c>
+      <c r="F83" s="29">
+        <v>3589</v>
+      </c>
+      <c r="G83" s="29">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="B84" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="C84" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="D84" s="29">
+        <v>1</v>
+      </c>
+      <c r="E84" s="29">
+        <v>1</v>
+      </c>
+      <c r="F84" s="29">
+        <v>2</v>
+      </c>
+      <c r="G84" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="35" customFormat="1">
+      <c r="B85" s="35" t="s">
+        <v>451</v>
+      </c>
+      <c r="C85" s="35" t="s">
+        <v>452</v>
+      </c>
+      <c r="D85" s="35">
+        <v>2</v>
+      </c>
+      <c r="E85" s="35">
+        <v>1</v>
+      </c>
+      <c r="F85" s="35">
+        <v>44</v>
+      </c>
+      <c r="G85" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="35" customFormat="1">
+      <c r="B86" s="36" t="s">
+        <v>459</v>
+      </c>
+      <c r="C86" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D86" s="35">
+        <v>1</v>
+      </c>
+      <c r="E86" s="35">
+        <v>1</v>
+      </c>
+      <c r="F86" s="35">
+        <v>10</v>
+      </c>
+      <c r="G86" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="35" customFormat="1">
+      <c r="B87" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="C87" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="D87" s="35">
+        <v>1</v>
+      </c>
+      <c r="E87" s="35">
+        <v>1</v>
+      </c>
+      <c r="F87" s="35">
+        <v>4</v>
+      </c>
+      <c r="G87" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="35" customFormat="1">
+      <c r="B88" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="C88" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="D88" s="35">
+        <v>1</v>
+      </c>
+      <c r="E88" s="35">
+        <v>3</v>
+      </c>
+      <c r="F88" s="35">
+        <v>47</v>
+      </c>
+      <c r="G88" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="35" customFormat="1">
+      <c r="B89" s="38" t="s">
+        <v>473</v>
+      </c>
+      <c r="C89" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="D89" s="35">
+        <v>1</v>
+      </c>
+      <c r="E89" s="35">
+        <v>1</v>
+      </c>
+      <c r="F89" s="35">
+        <v>2</v>
+      </c>
+      <c r="G89" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="35" customFormat="1">
+      <c r="B90" s="38" t="s">
+        <v>477</v>
+      </c>
+      <c r="C90" s="38" t="s">
+        <v>478</v>
+      </c>
+      <c r="D90" s="35">
+        <v>2</v>
+      </c>
+      <c r="E90" s="35">
+        <v>4</v>
+      </c>
+      <c r="F90" s="35">
+        <v>55</v>
+      </c>
+      <c r="G90" s="35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="35" customFormat="1">
+      <c r="B91" s="38" t="s">
+        <v>481</v>
+      </c>
+      <c r="C91" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="D91" s="35">
+        <v>1</v>
+      </c>
+      <c r="E91" s="35">
+        <v>1</v>
+      </c>
+      <c r="F91" s="35">
+        <v>14</v>
+      </c>
+      <c r="G91" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="37" customFormat="1">
+      <c r="B92" s="38" t="s">
+        <v>487</v>
+      </c>
+      <c r="C92" s="37" t="s">
+        <v>452</v>
+      </c>
+      <c r="D92" s="37">
+        <v>1</v>
+      </c>
+      <c r="E92" s="37">
+        <v>4</v>
+      </c>
+      <c r="F92" s="37">
+        <v>47</v>
+      </c>
+      <c r="G92" s="37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="37" customFormat="1">
+      <c r="A93" s="38" t="s">
+        <v>664</v>
+      </c>
+      <c r="B93" s="43" t="s">
+        <v>662</v>
+      </c>
+      <c r="C93" s="42" t="s">
+        <v>571</v>
+      </c>
+      <c r="D93" s="37">
+        <v>1</v>
+      </c>
+      <c r="E93" s="37">
+        <v>1</v>
+      </c>
+      <c r="F93" s="37">
+        <v>1</v>
+      </c>
+      <c r="G93" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="37" customFormat="1">
+      <c r="B94" s="38"/>
+      <c r="C94" s="38"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="B95" s="31" t="s">
+        <v>577</v>
+      </c>
+      <c r="C95" s="31" t="s">
+        <v>578</v>
+      </c>
+      <c r="D95" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="E95" s="31" t="s">
+        <v>580</v>
+      </c>
+      <c r="F95" s="31" t="s">
+        <v>581</v>
+      </c>
+      <c r="G95" s="31" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="B102" s="31" t="s">
+        <v>608</v>
+      </c>
+      <c r="C102" s="31" t="s">
+        <v>578</v>
+      </c>
+      <c r="D102" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="E102" s="31" t="s">
+        <v>580</v>
+      </c>
+      <c r="F102" s="31" t="s">
+        <v>581</v>
+      </c>
+      <c r="G102" s="31" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="29" t="s">
+        <v>611</v>
+      </c>
+      <c r="B105" s="31" t="s">
+        <v>608</v>
+      </c>
+      <c r="C105" s="31" t="s">
+        <v>578</v>
+      </c>
+      <c r="D105" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="E105" s="31" t="s">
+        <v>580</v>
+      </c>
+      <c r="F105" s="31" t="s">
+        <v>581</v>
+      </c>
+      <c r="G105" s="31" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="B106" s="29" t="s">
+        <v>610</v>
+      </c>
+      <c r="C106" s="29" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="B107" s="29" t="s">
+        <v>612</v>
+      </c>
+      <c r="C107" s="29" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="B108" s="29" t="s">
+        <v>623</v>
+      </c>
+      <c r="C108" s="29" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="B109" s="38" t="s">
+        <v>508</v>
+      </c>
+      <c r="C109" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="D109" s="29">
+        <v>3</v>
+      </c>
+      <c r="E109" s="29">
+        <v>3</v>
+      </c>
+      <c r="F109" s="29">
+        <v>8</v>
+      </c>
+      <c r="G109" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="29" t="s">
+        <v>641</v>
+      </c>
+      <c r="B111" s="31" t="s">
+        <v>577</v>
+      </c>
+      <c r="C111" s="31" t="s">
+        <v>537</v>
+      </c>
+      <c r="D111" s="31" t="s">
+        <v>538</v>
+      </c>
+      <c r="E111" s="31" t="s">
+        <v>539</v>
+      </c>
+      <c r="F111" s="31" t="s">
+        <v>581</v>
+      </c>
+      <c r="G111" s="31" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="B112" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="C112" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="D112" s="29">
+        <v>1</v>
+      </c>
+      <c r="E112" s="29">
+        <v>1</v>
+      </c>
+      <c r="F112" s="29">
+        <v>1</v>
+      </c>
+      <c r="G112" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="29" t="s">
+        <v>643</v>
+      </c>
+      <c r="B114" s="31" t="s">
+        <v>577</v>
+      </c>
+      <c r="C114" s="31" t="s">
+        <v>537</v>
+      </c>
+      <c r="D114" s="31" t="s">
+        <v>538</v>
+      </c>
+      <c r="E114" s="31" t="s">
+        <v>539</v>
+      </c>
+      <c r="F114" s="31" t="s">
+        <v>581</v>
+      </c>
+      <c r="G114" s="31" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="B115" s="29" t="s">
+        <v>644</v>
+      </c>
+      <c r="C115" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="D115" s="29">
+        <v>6</v>
+      </c>
+      <c r="E115" s="29">
+        <v>4</v>
+      </c>
+      <c r="F115" s="29">
+        <v>51</v>
+      </c>
+      <c r="G115" s="29">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="B116" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="C116" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="D116" s="29">
+        <v>1</v>
+      </c>
+      <c r="E116" s="29">
+        <v>2</v>
+      </c>
+      <c r="F116" s="29">
+        <v>29</v>
+      </c>
+      <c r="G116" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="B117" s="29" t="s">
+        <v>380</v>
+      </c>
+      <c r="C117" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D117" s="29">
+        <v>1</v>
+      </c>
+      <c r="E117" s="29">
+        <v>2</v>
+      </c>
+      <c r="F117" s="29">
+        <v>16</v>
+      </c>
+      <c r="G117" s="29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="29" t="s">
+        <v>650</v>
+      </c>
+      <c r="B119" s="38" t="s">
+        <v>577</v>
+      </c>
+      <c r="C119" s="38" t="s">
+        <v>537</v>
+      </c>
+      <c r="D119" s="38" t="s">
+        <v>538</v>
+      </c>
+      <c r="E119" s="38" t="s">
+        <v>539</v>
+      </c>
+      <c r="F119" s="38" t="s">
+        <v>581</v>
+      </c>
+      <c r="G119" s="38" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="35" customFormat="1">
+      <c r="B120" s="36" t="s">
+        <v>462</v>
+      </c>
+      <c r="C120" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="D120" s="35">
+        <v>1</v>
+      </c>
+      <c r="E120" s="35">
+        <v>2</v>
+      </c>
+      <c r="F120" s="35">
+        <v>47</v>
+      </c>
+      <c r="G120" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="35" customFormat="1"/>
+    <row r="122" spans="1:8" s="35" customFormat="1"/>
+    <row r="123" spans="1:8">
+      <c r="A123" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="B123" s="31" t="s">
+        <v>606</v>
+      </c>
+      <c r="C123" s="31" t="s">
+        <v>578</v>
+      </c>
+      <c r="D123" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="E123" s="31" t="s">
+        <v>580</v>
+      </c>
+      <c r="F123" s="31" t="s">
+        <v>581</v>
+      </c>
+      <c r="G123" s="31" t="s">
+        <v>541</v>
+      </c>
+      <c r="H123" s="38" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="B124" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="C124" s="29" t="s">
+        <v>603</v>
+      </c>
+      <c r="H124" s="38" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="B125" s="29" t="s">
+        <v>604</v>
+      </c>
+      <c r="C125" s="29" t="s">
+        <v>605</v>
+      </c>
+      <c r="H125" s="38" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="B126" s="29" t="s">
+        <v>607</v>
+      </c>
+      <c r="C126" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="H126" s="38" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="B127" s="29" t="s">
+        <v>614</v>
+      </c>
+      <c r="C127" s="29" t="s">
+        <v>615</v>
+      </c>
+      <c r="H127" s="38" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="B128" s="29" t="s">
+        <v>626</v>
+      </c>
+      <c r="C128" s="29" t="s">
+        <v>628</v>
+      </c>
+      <c r="H128" s="38" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8">
+      <c r="B129" s="29" t="s">
+        <v>627</v>
+      </c>
+      <c r="C129" s="29" t="s">
+        <v>629</v>
+      </c>
+      <c r="H129" s="38" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8">
+      <c r="B130" s="29" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8">
+      <c r="B131" s="35" t="s">
+        <v>646</v>
+      </c>
+      <c r="C131" s="35" t="s">
+        <v>647</v>
+      </c>
+      <c r="H131" s="37" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8">
+      <c r="B132" s="35" t="s">
+        <v>403</v>
+      </c>
+      <c r="C132" s="35" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8">
+      <c r="B133" s="35" t="s">
+        <v>405</v>
+      </c>
+      <c r="C133" s="29" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8">
+      <c r="B134" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="C134" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="H134" s="37" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8">
+      <c r="B135" s="35" t="s">
+        <v>421</v>
+      </c>
+      <c r="C135" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="D135" s="29">
+        <v>1</v>
+      </c>
+      <c r="E135" s="29">
+        <v>1</v>
+      </c>
+      <c r="F135" s="29">
+        <v>4</v>
+      </c>
+      <c r="G135" s="29">
+        <v>4</v>
+      </c>
+      <c r="H135" s="38" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8">
+      <c r="B136" s="29" t="s">
+        <v>649</v>
+      </c>
+      <c r="H136" s="38" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8">
+      <c r="B137" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="C137" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="H137" s="38" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8">
+      <c r="B138" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="C138" s="38" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8">
+      <c r="B139" s="38" t="s">
+        <v>482</v>
+      </c>
+      <c r="C139" s="38" t="s">
+        <v>527</v>
+      </c>
+      <c r="D139" s="29">
+        <v>2</v>
+      </c>
+      <c r="E139" s="29">
+        <v>1</v>
+      </c>
+      <c r="F139" s="29">
+        <v>31</v>
+      </c>
+      <c r="G139" s="29">
+        <v>18</v>
+      </c>
+      <c r="H139" s="38" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8">
+      <c r="B140" s="38" t="s">
+        <v>507</v>
+      </c>
+      <c r="C140" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="H140" s="38" t="s">
+        <v>673</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1854,10 +6735,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>73</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1873,71 +6754,71 @@
         <v>19</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="20.5">
       <c r="A12" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>117</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1964,7 +6845,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2013,43 +6894,43 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>40</v>
+      <c r="A2" s="5" t="s">
+        <v>567</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>43</v>
+        <v>570</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>48</v>
+        <v>547</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="C3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -2058,13 +6939,13 @@
         <v>4</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2081,7 +6962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2128,10 +7009,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2179,7 +7060,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2230,240 +7111,240 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="C3" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="C4" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="B5" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="C6" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="C7" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="B8" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="C9" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>155</v>
-      </c>
       <c r="J10" s="5" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="C11" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>161</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="C12" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2472,65 +7353,65 @@
         <v>2</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="C13" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="C14" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>176</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2545,10 +7426,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2596,35 +7477,60 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="34" t="s">
+        <v>572</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="C2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>65</v>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>102</v>
+      </c>
+      <c r="G10">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2640,8 +7546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2800,7 +7706,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2847,15 +7753,15 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>62</v>
+        <v>173</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="B5" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2866,4 +7772,2297 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L91"/>
+  <sheetViews>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="29"/>
+    <col min="2" max="3" width="28.58203125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="15.08203125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="33.1640625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="29" customWidth="1"/>
+    <col min="7" max="8" width="8.6640625" style="29"/>
+    <col min="9" max="9" width="23.33203125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="77.83203125" style="29" customWidth="1"/>
+    <col min="11" max="11" width="105.9140625" style="29" customWidth="1"/>
+    <col min="12" max="12" width="46" style="29" customWidth="1"/>
+    <col min="13" max="16384" width="8.6640625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="29">
+        <v>1</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="29">
+        <v>1</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="D3" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="F3" s="29">
+        <v>2</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="H3" s="29">
+        <v>3</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="D4" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="32">
+        <v>1</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="H4" s="32">
+        <v>2</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>585</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="D5" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="29">
+        <v>2</v>
+      </c>
+      <c r="H5" s="29">
+        <v>2</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>586</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="D6" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="C7" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="29">
+        <v>5</v>
+      </c>
+      <c r="H7" s="29">
+        <v>5</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="D8" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="F8" s="32">
+        <v>1</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32">
+        <v>2</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="C9" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="F9" s="29">
+        <v>1</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="29">
+        <v>2</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="D10" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="F10" s="29">
+        <v>2</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="H10" s="29">
+        <v>2</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>587</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="D11" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="F11" s="29">
+        <v>1</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="H11" s="29">
+        <v>2</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>588</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="D12" s="31" t="s">
+        <v>609</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="F12" s="29">
+        <v>1</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="H12" s="29">
+        <v>2</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>589</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="D13" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="F13" s="29">
+        <v>2</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="H13" s="29">
+        <v>2</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="D14" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="F14" s="29">
+        <v>2</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="H14" s="29">
+        <v>2</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="D15" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="F15" s="29">
+        <v>2</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="H15" s="29">
+        <v>2</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="D16" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="F16" s="29">
+        <v>2</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="H16" s="29">
+        <v>2</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11">
+      <c r="D17" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="F17" s="29">
+        <v>1</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="H17" s="29">
+        <v>2</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J17" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11">
+      <c r="C18" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="F18" s="29">
+        <v>3</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="H18" s="29">
+        <v>3</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="K18" s="29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11">
+      <c r="D19" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="F19" s="29">
+        <v>1</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="H19" s="29">
+        <v>2</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11">
+      <c r="D20" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="F20" s="29">
+        <v>3</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="H20" s="29">
+        <v>3</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11">
+      <c r="D21" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="F21" s="29">
+        <v>2</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H21" s="29">
+        <v>2</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11">
+      <c r="D22" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="F22" s="29">
+        <v>7</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H22" s="29">
+        <v>7</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11">
+      <c r="D23" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="F23" s="29">
+        <v>2</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="H23" s="29">
+        <v>2</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="K23" s="29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11">
+      <c r="D24" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="F24" s="29">
+        <v>2</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="H24" s="29">
+        <v>2</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="K24" s="29" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11">
+      <c r="D25" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="F25" s="29">
+        <v>2</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="H25" s="29">
+        <v>2</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="J25" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="K25" s="29" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11">
+      <c r="D26" s="29" t="s">
+        <v>622</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>625</v>
+      </c>
+      <c r="F26" s="29">
+        <v>3</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="H26" s="29">
+        <v>3</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="J26" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11">
+      <c r="D27" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="F27" s="29">
+        <v>2</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="H27" s="29">
+        <v>2</v>
+      </c>
+      <c r="I27" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="J27" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="K27" s="29" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11">
+      <c r="D28" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="F28" s="29">
+        <v>2</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="H28" s="29">
+        <v>2</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="J28" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="K28" s="29" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11">
+      <c r="D29" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="F29" s="29">
+        <v>2</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="H29" s="29">
+        <v>2</v>
+      </c>
+      <c r="I29" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="J29" s="31" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11">
+      <c r="D30" s="29" t="s">
+        <v>630</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>632</v>
+      </c>
+      <c r="F30" s="29">
+        <v>2</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="H30" s="29">
+        <v>2</v>
+      </c>
+      <c r="I30" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="J30" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="K30" s="29" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11">
+      <c r="D31" s="29" t="s">
+        <v>634</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>635</v>
+      </c>
+      <c r="F31" s="29">
+        <v>2</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="H31" s="29">
+        <v>2</v>
+      </c>
+      <c r="I31" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="J31" s="31" t="s">
+        <v>562</v>
+      </c>
+      <c r="K31" s="29" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11">
+      <c r="C32" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11">
+      <c r="D33" s="29" t="s">
+        <v>638</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>639</v>
+      </c>
+      <c r="F33" s="29">
+        <v>2</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="H33" s="29">
+        <v>2</v>
+      </c>
+      <c r="I33" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="J33" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="K33" s="29" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11">
+      <c r="D34" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="F34" s="29">
+        <v>2</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="H34" s="29">
+        <v>2</v>
+      </c>
+      <c r="I34" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="J34" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="K34" s="29" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11">
+      <c r="C36" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="F36" s="29">
+        <v>2</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="H36" s="29">
+        <v>2</v>
+      </c>
+      <c r="I36" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="J36" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="K36" s="29" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11">
+      <c r="D37" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="F37" s="29">
+        <v>2</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="H37" s="29">
+        <v>2</v>
+      </c>
+      <c r="I37" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="J37" s="29" t="s">
+        <v>640</v>
+      </c>
+      <c r="K37" s="29" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11">
+      <c r="D38" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="F38" s="29">
+        <v>1</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="H38" s="29">
+        <v>3</v>
+      </c>
+      <c r="I38" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="J38" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="K38" s="29" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11">
+      <c r="D39" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="F39" s="29">
+        <v>2</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="H39" s="29">
+        <v>2</v>
+      </c>
+      <c r="I39" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="J39" s="31" t="s">
+        <v>560</v>
+      </c>
+      <c r="K39" s="29" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11">
+      <c r="D40" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="F40" s="29">
+        <v>2</v>
+      </c>
+      <c r="G40" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="H40" s="29">
+        <v>1</v>
+      </c>
+      <c r="I40" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="J40" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="K40" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11">
+      <c r="D41" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="F41" s="29">
+        <v>2</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="H41" s="29">
+        <v>2</v>
+      </c>
+      <c r="I41" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="J41" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="K41" s="31" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11">
+      <c r="D42" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="F42" s="29">
+        <v>2</v>
+      </c>
+      <c r="G42" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="H42" s="29">
+        <v>2</v>
+      </c>
+      <c r="I42" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="J42" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="K42" s="29" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11">
+      <c r="D43" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="F43" s="29">
+        <v>1</v>
+      </c>
+      <c r="G43" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="H43" s="29">
+        <v>1</v>
+      </c>
+      <c r="I43" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="J43" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="K43" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11">
+      <c r="D44" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="F44" s="29">
+        <v>2</v>
+      </c>
+      <c r="G44" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="H44" s="29">
+        <v>2</v>
+      </c>
+      <c r="I44" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="J44" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="K44" s="29" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11">
+      <c r="D45" s="29" t="s">
+        <v>591</v>
+      </c>
+      <c r="E45" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="F45" s="29">
+        <v>2</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="H45" s="29">
+        <v>2</v>
+      </c>
+      <c r="I45" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="J45" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="K45" s="29" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11">
+      <c r="D46" s="29" t="s">
+        <v>644</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="F46" s="29">
+        <v>2</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="H46" s="29">
+        <v>3</v>
+      </c>
+      <c r="I46" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="J46" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="K46" s="29" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11">
+      <c r="D47" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="F47" s="29">
+        <v>1</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="H47" s="29">
+        <v>1</v>
+      </c>
+      <c r="I47" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="J47" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="K47" s="29" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11">
+      <c r="D48" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="F48" s="29">
+        <v>2</v>
+      </c>
+      <c r="G48" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="H48" s="29">
+        <v>2</v>
+      </c>
+      <c r="I48" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="J48" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="K48" s="29" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11">
+      <c r="D49" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="E49" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="F49" s="29">
+        <v>1</v>
+      </c>
+      <c r="G49" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="H49" s="29">
+        <v>1</v>
+      </c>
+      <c r="I49" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="J49" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="K49" s="29" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="50" spans="3:11">
+      <c r="D50" s="29" t="s">
+        <v>380</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="F50" s="29">
+        <v>2</v>
+      </c>
+      <c r="G50" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="H50" s="29">
+        <v>1</v>
+      </c>
+      <c r="I50" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="J50" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="K50" s="29" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="51" spans="3:11">
+      <c r="D51" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="E51" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="F51" s="29">
+        <v>1</v>
+      </c>
+      <c r="G51" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="H51" s="29">
+        <v>1</v>
+      </c>
+      <c r="I51" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="J51" s="29" t="s">
+        <v>645</v>
+      </c>
+      <c r="K51" s="29" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="52" spans="3:11">
+      <c r="D52" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="F52" s="29">
+        <v>3</v>
+      </c>
+      <c r="G52" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="H52" s="29">
+        <v>3</v>
+      </c>
+      <c r="I52" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="J52" s="29" t="s">
+        <v>648</v>
+      </c>
+      <c r="K52" s="29" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="53" spans="3:11">
+      <c r="D53" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="E53" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="F53" s="29">
+        <v>1</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="H53" s="29">
+        <v>1</v>
+      </c>
+      <c r="I53" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="J53" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="K53" s="29" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="54" spans="3:11">
+      <c r="D54" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="F54" s="29">
+        <v>2</v>
+      </c>
+      <c r="G54" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="H54" s="29">
+        <v>1</v>
+      </c>
+      <c r="I54" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="J54" s="29" t="s">
+        <v>401</v>
+      </c>
+      <c r="K54" s="29" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="55" spans="3:11">
+      <c r="D55" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="F55" s="29">
+        <v>2</v>
+      </c>
+      <c r="G55" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="H55" s="29">
+        <v>2</v>
+      </c>
+      <c r="I55" s="29" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="56" spans="3:11">
+      <c r="D56" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="57" spans="3:11">
+      <c r="D57" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="E57" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="F57" s="29">
+        <v>8</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="H57" s="29">
+        <v>8</v>
+      </c>
+      <c r="I57" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="J57" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="K57" s="29" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="58" spans="3:11">
+      <c r="D58" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="F58" s="29">
+        <v>2</v>
+      </c>
+      <c r="G58" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="H58" s="29">
+        <v>2</v>
+      </c>
+      <c r="I58" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="J58" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="K58" s="29" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="59" spans="3:11">
+      <c r="D59" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="E59" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="F59" s="29">
+        <v>3</v>
+      </c>
+      <c r="G59" s="29" t="s">
+        <v>418</v>
+      </c>
+      <c r="H59" s="29">
+        <v>3</v>
+      </c>
+      <c r="I59" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="J59" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="K59" s="29" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="60" spans="3:11">
+      <c r="D60" s="29" t="s">
+        <v>421</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="F60" s="29">
+        <v>1</v>
+      </c>
+      <c r="G60" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="H60" s="29">
+        <v>1</v>
+      </c>
+      <c r="I60" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="J60" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="K60" s="29" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="61" spans="3:11">
+      <c r="C61" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="62" spans="3:11">
+      <c r="D62" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="F62" s="29">
+        <v>2</v>
+      </c>
+      <c r="G62" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="H62" s="29">
+        <v>2</v>
+      </c>
+      <c r="I62" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="J62" s="29" t="s">
+        <v>429</v>
+      </c>
+      <c r="K62" s="29" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="63" spans="3:11">
+      <c r="D63" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="E63" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="F63" s="29">
+        <v>2</v>
+      </c>
+      <c r="G63" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="H63" s="29">
+        <v>2</v>
+      </c>
+      <c r="I63" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="J63" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="K63" s="29" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="64" spans="3:11">
+      <c r="D64" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="E64" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="F64" s="29">
+        <v>1</v>
+      </c>
+      <c r="G64" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="H64" s="29">
+        <v>1</v>
+      </c>
+      <c r="I64" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="J64" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="K64" s="29" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="65" spans="3:11">
+      <c r="D65" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="E65" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="F65" s="29">
+        <v>1</v>
+      </c>
+      <c r="G65" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="H65" s="29">
+        <v>1</v>
+      </c>
+      <c r="I65" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="J65" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="K65" s="29" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="66" spans="3:11">
+      <c r="D66" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="E66" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="F66" s="29">
+        <v>1</v>
+      </c>
+      <c r="G66" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="H66" s="29">
+        <v>1</v>
+      </c>
+      <c r="I66" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="J66" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="K66" s="29" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="67" spans="3:11">
+      <c r="D67" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="F67" s="29">
+        <v>2</v>
+      </c>
+      <c r="G67" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="H67" s="29">
+        <v>2</v>
+      </c>
+      <c r="I67" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="J67" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="K67" s="29" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="68" spans="3:11">
+      <c r="D68" s="29" t="s">
+        <v>447</v>
+      </c>
+      <c r="E68" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="F68" s="29">
+        <v>3</v>
+      </c>
+      <c r="G68" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="H68" s="29">
+        <v>3</v>
+      </c>
+      <c r="I68" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="J68" s="29" t="s">
+        <v>449</v>
+      </c>
+      <c r="K68" s="29" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="69" spans="3:11">
+      <c r="D69" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="E69" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="F69" s="29">
+        <v>1</v>
+      </c>
+      <c r="G69" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="H69" s="29">
+        <v>1</v>
+      </c>
+      <c r="I69" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="J69" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="K69" s="31" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="70" spans="3:11">
+      <c r="D70" s="31" t="s">
+        <v>455</v>
+      </c>
+      <c r="E70" s="31" t="s">
+        <v>456</v>
+      </c>
+      <c r="F70" s="29">
+        <v>2</v>
+      </c>
+      <c r="G70" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="H70" s="29">
+        <v>2</v>
+      </c>
+      <c r="I70" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="J70" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="K70" s="29" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="71" spans="3:11">
+      <c r="D71" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="E71" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="F71" s="29">
+        <v>1</v>
+      </c>
+      <c r="G71" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="H71" s="29">
+        <v>1</v>
+      </c>
+      <c r="I71" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="J71" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="K71" s="31" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="72" spans="3:11">
+      <c r="D72" s="31" t="s">
+        <v>462</v>
+      </c>
+      <c r="E72" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="F72" s="29">
+        <v>1</v>
+      </c>
+      <c r="G72" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="H72" s="29">
+        <v>1</v>
+      </c>
+      <c r="I72" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="J72" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="K72" s="31" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="73" spans="3:11">
+      <c r="D73" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="E73" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="F73" s="29">
+        <v>2</v>
+      </c>
+      <c r="G73" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="H73" s="29">
+        <v>2</v>
+      </c>
+      <c r="I73" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="J73" s="31" t="s">
+        <v>468</v>
+      </c>
+      <c r="K73" s="31" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="74" spans="3:11">
+      <c r="D74" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="E74" s="31" t="s">
+        <v>470</v>
+      </c>
+      <c r="F74" s="29">
+        <v>1</v>
+      </c>
+      <c r="G74" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="H74" s="29">
+        <v>1</v>
+      </c>
+      <c r="I74" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="J74" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="K74" s="29" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="75" spans="3:11">
+      <c r="D75" s="31" t="s">
+        <v>472</v>
+      </c>
+      <c r="E75" s="31" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="76" spans="3:11">
+      <c r="C76" s="29">
+        <v>1</v>
+      </c>
+      <c r="D76" s="31" t="s">
+        <v>473</v>
+      </c>
+      <c r="E76" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="F76" s="29">
+        <v>1</v>
+      </c>
+      <c r="G76" s="31" t="s">
+        <v>476</v>
+      </c>
+      <c r="H76" s="29">
+        <v>1</v>
+      </c>
+      <c r="I76" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="J76" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="K76" s="29" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="77" spans="3:11">
+      <c r="C77" s="29">
+        <v>1</v>
+      </c>
+      <c r="D77" s="31" t="s">
+        <v>477</v>
+      </c>
+      <c r="E77" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="F77" s="29">
+        <v>1</v>
+      </c>
+      <c r="H77" s="29">
+        <v>1</v>
+      </c>
+      <c r="I77" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="K77" s="31" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="78" spans="3:11">
+      <c r="D78" s="31" t="s">
+        <v>480</v>
+      </c>
+      <c r="E78" s="31" t="s">
+        <v>532</v>
+      </c>
+      <c r="F78" s="29">
+        <v>2</v>
+      </c>
+      <c r="G78" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="H78" s="29">
+        <v>2</v>
+      </c>
+      <c r="I78" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="J78" s="31" t="s">
+        <v>534</v>
+      </c>
+      <c r="K78" s="31" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="79" spans="3:11">
+      <c r="D79" s="31" t="s">
+        <v>481</v>
+      </c>
+      <c r="E79" s="31" t="s">
+        <v>529</v>
+      </c>
+      <c r="F79" s="29">
+        <v>4</v>
+      </c>
+      <c r="G79" s="31" t="s">
+        <v>504</v>
+      </c>
+      <c r="H79" s="29">
+        <v>4</v>
+      </c>
+      <c r="I79" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="J79" s="31" t="s">
+        <v>531</v>
+      </c>
+      <c r="K79" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="80" spans="3:11">
+      <c r="D80" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="E80" s="31" t="s">
+        <v>527</v>
+      </c>
+      <c r="F80" s="29">
+        <v>4</v>
+      </c>
+      <c r="G80" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="H80" s="29">
+        <v>4</v>
+      </c>
+      <c r="I80" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="J80" s="31" t="s">
+        <v>528</v>
+      </c>
+      <c r="K80" s="29" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="81" spans="3:11">
+      <c r="D81" s="31" t="s">
+        <v>483</v>
+      </c>
+      <c r="E81" s="31" t="s">
+        <v>523</v>
+      </c>
+      <c r="F81" s="29">
+        <v>1</v>
+      </c>
+      <c r="G81" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="H81" s="29">
+        <v>1</v>
+      </c>
+      <c r="I81" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="J81" s="31" t="s">
+        <v>524</v>
+      </c>
+      <c r="K81" s="29" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="82" spans="3:11">
+      <c r="D82" s="31" t="s">
+        <v>484</v>
+      </c>
+      <c r="E82" s="29" t="s">
+        <v>520</v>
+      </c>
+      <c r="F82" s="29">
+        <v>2</v>
+      </c>
+      <c r="G82" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="H82" s="29">
+        <v>2</v>
+      </c>
+      <c r="I82" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="J82" s="31" t="s">
+        <v>521</v>
+      </c>
+      <c r="K82" s="31" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="83" spans="3:11">
+      <c r="D83" s="31" t="s">
+        <v>485</v>
+      </c>
+      <c r="E83" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="F83" s="29">
+        <v>1</v>
+      </c>
+      <c r="G83" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="H83" s="29">
+        <v>1</v>
+      </c>
+      <c r="I83" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="J83" s="29" t="s">
+        <v>519</v>
+      </c>
+      <c r="K83" s="29" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="84" spans="3:11">
+      <c r="C84" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="D84" s="31" t="s">
+        <v>507</v>
+      </c>
+      <c r="E84" s="29" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="85" spans="3:11">
+      <c r="D85" s="31" t="s">
+        <v>486</v>
+      </c>
+      <c r="E85" s="29" t="s">
+        <v>514</v>
+      </c>
+      <c r="F85" s="29">
+        <v>1</v>
+      </c>
+      <c r="G85" s="29" t="s">
+        <v>504</v>
+      </c>
+      <c r="H85" s="29">
+        <v>1</v>
+      </c>
+      <c r="I85" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="J85" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="K85" s="29" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="86" spans="3:11">
+      <c r="D86" s="31" t="s">
+        <v>508</v>
+      </c>
+      <c r="E86" s="29" t="s">
+        <v>509</v>
+      </c>
+      <c r="F86" s="29">
+        <v>2</v>
+      </c>
+      <c r="G86" s="29" t="s">
+        <v>499</v>
+      </c>
+      <c r="H86" s="29">
+        <v>2</v>
+      </c>
+      <c r="I86" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="J86" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="K86" s="29" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="87" spans="3:11">
+      <c r="D87" s="31" t="s">
+        <v>663</v>
+      </c>
+      <c r="E87" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="F87" s="29">
+        <v>1</v>
+      </c>
+      <c r="G87" s="29" t="s">
+        <v>504</v>
+      </c>
+      <c r="H87" s="29">
+        <v>1</v>
+      </c>
+      <c r="I87" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="J87" s="29" t="s">
+        <v>506</v>
+      </c>
+      <c r="K87" s="29" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="88" spans="3:11">
+      <c r="D88" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="E88" s="29" t="s">
+        <v>498</v>
+      </c>
+      <c r="F88" s="29">
+        <v>2</v>
+      </c>
+      <c r="G88" s="29" t="s">
+        <v>499</v>
+      </c>
+      <c r="H88" s="29">
+        <v>2</v>
+      </c>
+      <c r="I88" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="J88" s="29" t="s">
+        <v>501</v>
+      </c>
+      <c r="K88" s="29" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="89" spans="3:11">
+      <c r="D89" s="31" t="s">
+        <v>660</v>
+      </c>
+      <c r="E89" s="31" t="s">
+        <v>496</v>
+      </c>
+      <c r="F89" s="29">
+        <v>3</v>
+      </c>
+      <c r="G89" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="H89" s="29">
+        <v>3</v>
+      </c>
+      <c r="I89" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="J89" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="K89" s="31" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="90" spans="3:11">
+      <c r="D90" s="31" t="s">
+        <v>657</v>
+      </c>
+      <c r="E90" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="F90" s="29">
+        <v>3</v>
+      </c>
+      <c r="G90" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="H90" s="29">
+        <v>3</v>
+      </c>
+      <c r="I90" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="J90" s="31" t="s">
+        <v>491</v>
+      </c>
+      <c r="K90" s="31" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="91" spans="3:11">
+      <c r="D91" s="31" t="s">
+        <v>654</v>
+      </c>
+      <c r="E91" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="F91" s="29">
+        <v>5</v>
+      </c>
+      <c r="G91" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="H91" s="29">
+        <v>5</v>
+      </c>
+      <c r="I91" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="J91" s="31" t="s">
+        <v>489</v>
+      </c>
+      <c r="K91" s="31" t="s">
+        <v>490</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/数据分析/项目统计信息表（周天驰）.xlsx
+++ b/数据分析/项目统计信息表（周天驰）.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="957">
   <si>
     <t>项目名称</t>
   </si>
@@ -3787,18 +3787,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>未知</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>未知</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>未知</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>3months20days</t>
   </si>
   <si>
@@ -3823,23 +3811,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>仍在o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pen</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>七、代码重构，代码结构优化</t>
   </si>
   <si>
@@ -5456,6 +5427,97 @@
   </si>
   <si>
     <t>cldrn</t>
+  </si>
+  <si>
+    <t>Sarkancheg</t>
+  </si>
+  <si>
+    <t>Neo23x0</t>
+  </si>
+  <si>
+    <t>nopslider</t>
+  </si>
+  <si>
+    <t>Eugeny1</t>
+  </si>
+  <si>
+    <t>RajithaRama</t>
+  </si>
+  <si>
+    <t>e12283</t>
+  </si>
+  <si>
+    <t>serious-cnam </t>
+  </si>
+  <si>
+    <t>hsluoyz </t>
+  </si>
+  <si>
+    <t>ohauer</t>
+  </si>
+  <si>
+    <t>ghost</t>
+  </si>
+  <si>
+    <t>CoriDavis</t>
+  </si>
+  <si>
+    <t>McGuywer</t>
+  </si>
+  <si>
+    <t>tonytranupc</t>
+  </si>
+  <si>
+    <t>legendtang</t>
+  </si>
+  <si>
+    <t>Thilo1 </t>
+  </si>
+  <si>
+    <t>simgar </t>
+  </si>
+  <si>
+    <t>yuriy-blinov </t>
+  </si>
+  <si>
+    <t>TomSellers</t>
+  </si>
+  <si>
+    <t>mcagl</t>
+  </si>
+  <si>
+    <t>mozzer74</t>
+  </si>
+  <si>
+    <t>hagihala</t>
+  </si>
+  <si>
+    <t>functio</t>
+  </si>
+  <si>
+    <t>stonky</t>
+  </si>
+  <si>
+    <t>levelksk </t>
+  </si>
+  <si>
+    <t>vinnytroia</t>
+  </si>
+  <si>
+    <t>cybernorris</t>
+  </si>
+  <si>
+    <t>dmiller-nmap</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsimmons </t>
+  </si>
+  <si>
+    <t>klondi</t>
+  </si>
+  <si>
+    <t>mhlavink</t>
   </si>
 </sst>
 </file>
@@ -5669,7 +5731,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5816,6 +5878,12 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6499,10 +6567,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O140"/>
+  <dimension ref="A1:R242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView tabSelected="1" topLeftCell="F136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O113" sqref="O113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6513,28 +6581,37 @@
     <col min="4" max="4" width="9.5" style="29" customWidth="1"/>
     <col min="5" max="5" width="17.83203125" style="29" customWidth="1"/>
     <col min="6" max="7" width="8.6640625" style="29"/>
-    <col min="8" max="8" width="23.33203125" style="29" customWidth="1"/>
-    <col min="9" max="9" width="23.58203125" style="29" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" style="46" customWidth="1"/>
-    <col min="11" max="11" width="13.25" style="29" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" style="29" customWidth="1"/>
-    <col min="13" max="13" width="10" style="29" customWidth="1"/>
-    <col min="14" max="16384" width="8.6640625" style="29"/>
+    <col min="8" max="8" width="8.58203125" style="46" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="29" customWidth="1"/>
+    <col min="10" max="10" width="15.58203125" style="29" customWidth="1"/>
+    <col min="11" max="11" width="13" style="46" customWidth="1"/>
+    <col min="12" max="12" width="13.25" style="29" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="29" customWidth="1"/>
+    <col min="14" max="14" width="10" style="29" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="29"/>
+    <col min="16" max="16" width="11.58203125" style="29" customWidth="1"/>
+    <col min="17" max="17" width="13" style="29" customWidth="1"/>
+    <col min="18" max="16384" width="8.6640625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:16">
       <c r="A1" s="31" t="s">
         <v>534</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="I1" s="46" t="s">
+        <v>881</v>
+      </c>
+      <c r="J1" s="47" t="s">
         <v>885</v>
       </c>
-      <c r="I1" s="47" t="s">
-        <v>889</v>
-      </c>
-      <c r="J1" s="47"/>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="K1" s="47"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="B2" s="31" t="s">
         <v>535</v>
       </c>
@@ -6553,69 +6630,86 @@
       <c r="G2" s="31" t="s">
         <v>540</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="H2" s="47"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="B3" s="31" t="s">
         <v>541</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>542</v>
       </c>
-      <c r="H3" s="46">
+      <c r="I3" s="46">
         <v>3</v>
       </c>
-      <c r="I3" s="18" t="s">
-        <v>890</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>887</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="J3" s="50" t="s">
+        <v>886</v>
+      </c>
+      <c r="K3" s="50" t="s">
+        <v>883</v>
+      </c>
+      <c r="L3" s="50" t="s">
+        <v>884</v>
+      </c>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="B4" s="31" t="s">
         <v>543</v>
       </c>
       <c r="C4" s="31" t="s">
         <v>544</v>
       </c>
-      <c r="H4" s="46">
+      <c r="I4" s="46">
         <v>3</v>
       </c>
-      <c r="I4" s="18" t="s">
-        <v>892</v>
-      </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="50" t="s">
+        <v>888</v>
+      </c>
+      <c r="K4" s="50" t="s">
+        <v>883</v>
+      </c>
+      <c r="L4" s="50" t="s">
         <v>887</v>
       </c>
-      <c r="K4" s="18" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="B5" s="31" t="s">
         <v>545</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>546</v>
       </c>
-      <c r="H5" s="46">
-        <v>2</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>893</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>887</v>
-      </c>
-      <c r="K5" s="46"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="I5" s="46">
+        <v>2</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>889</v>
+      </c>
+      <c r="K5" s="50" t="s">
+        <v>883</v>
+      </c>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="B6" s="31" t="s">
         <v>547</v>
       </c>
@@ -6634,88 +6728,110 @@
       <c r="G6" s="29">
         <v>3</v>
       </c>
-      <c r="H6" s="46">
-        <v>2</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>894</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>887</v>
-      </c>
-      <c r="K6" s="46"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="I6" s="46">
+        <v>2</v>
+      </c>
+      <c r="J6" s="50" t="s">
+        <v>890</v>
+      </c>
+      <c r="K6" s="50" t="s">
+        <v>883</v>
+      </c>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="B7" s="31" t="s">
         <v>548</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>549</v>
       </c>
-      <c r="H7" s="29">
-        <v>2</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>895</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>887</v>
-      </c>
-      <c r="K7" s="46"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="I7" s="29">
+        <v>2</v>
+      </c>
+      <c r="J7" s="50" t="s">
+        <v>891</v>
+      </c>
+      <c r="K7" s="50" t="s">
+        <v>883</v>
+      </c>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="B8" s="31" t="s">
         <v>550</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>551</v>
       </c>
-      <c r="H8" s="29">
-        <v>2</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>896</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>887</v>
-      </c>
-      <c r="K8" s="46"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="I8" s="29">
+        <v>2</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>892</v>
+      </c>
+      <c r="K8" s="50" t="s">
+        <v>883</v>
+      </c>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="B9" s="31" t="s">
         <v>552</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>553</v>
       </c>
-      <c r="H9" s="29">
-        <v>2</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="I9" s="29">
+        <v>2</v>
+      </c>
+      <c r="J9" s="50" t="s">
+        <v>893</v>
+      </c>
+      <c r="K9" s="50" t="s">
+        <v>883</v>
+      </c>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="B10" s="31" t="s">
         <v>554</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>555</v>
       </c>
-      <c r="H10" s="29">
-        <v>2</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="I10" s="29">
+        <v>2</v>
+      </c>
+      <c r="J10" s="50" t="s">
+        <v>894</v>
+      </c>
+      <c r="K10" s="50" t="s">
+        <v>883</v>
+      </c>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="B11" s="31" t="s">
         <v>556</v>
       </c>
@@ -6734,55 +6850,68 @@
       <c r="G11" s="29">
         <v>0</v>
       </c>
-      <c r="H11" s="29">
+      <c r="I11" s="29">
         <v>3</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="J11" s="50" t="s">
+        <v>895</v>
+      </c>
+      <c r="K11" s="50" t="s">
+        <v>883</v>
+      </c>
+      <c r="L11" s="50" t="s">
+        <v>896</v>
+      </c>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="B12" s="31" t="s">
         <v>557</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="H12" s="29">
-        <v>2</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="I12" s="29">
+        <v>2</v>
+      </c>
+      <c r="J12" s="50" t="s">
+        <v>897</v>
+      </c>
+      <c r="K12" s="50" t="s">
+        <v>883</v>
+      </c>
+      <c r="L12" s="50"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="B13" s="31" t="s">
         <v>558</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="29">
-        <v>2</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="I13" s="29">
+        <v>2</v>
+      </c>
+      <c r="J13" s="50" t="s">
+        <v>898</v>
+      </c>
+      <c r="K13" s="50" t="s">
+        <v>883</v>
+      </c>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="B14" s="31" t="s">
         <v>563</v>
       </c>
@@ -6801,14 +6930,19 @@
       <c r="G14" s="29">
         <v>34</v>
       </c>
-      <c r="H14" s="29">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="I14" s="29">
+        <v>1</v>
+      </c>
+      <c r="J14" s="50" t="s">
+        <v>899</v>
+      </c>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="B15" s="31" t="s">
         <v>565</v>
       </c>
@@ -6827,14 +6961,19 @@
       <c r="G15" s="29">
         <v>2</v>
       </c>
-      <c r="H15" s="29">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="35" customFormat="1">
+      <c r="I15" s="29">
+        <v>1</v>
+      </c>
+      <c r="J15" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+    </row>
+    <row r="16" spans="1:16" s="35" customFormat="1">
       <c r="B16" s="35" t="s">
         <v>398</v>
       </c>
@@ -6853,22 +6992,34 @@
       <c r="G16" s="35">
         <v>5</v>
       </c>
-      <c r="H16" s="35">
-        <v>2</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="H16" s="46"/>
+      <c r="I16" s="35">
+        <v>2</v>
+      </c>
+      <c r="J16" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="K16" s="50" t="s">
+        <v>901</v>
+      </c>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+    </row>
+    <row r="17" spans="1:16">
       <c r="B17" s="31" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="J17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+    </row>
+    <row r="18" spans="1:16">
       <c r="B18" s="29" t="s">
         <v>568</v>
       </c>
@@ -6887,15 +7038,35 @@
       <c r="G18" s="29">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="J18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="J19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="31" t="s">
         <v>575</v>
       </c>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="J20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+    </row>
+    <row r="21" spans="1:16">
       <c r="B21" s="31" t="s">
         <v>576</v>
       </c>
@@ -6914,8 +7085,15 @@
       <c r="G21" s="31" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="H21" s="47"/>
+      <c r="J21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+    </row>
+    <row r="22" spans="1:16">
       <c r="B22" s="31" t="s">
         <v>581</v>
       </c>
@@ -6934,14 +7112,19 @@
       <c r="G22" s="29">
         <v>28</v>
       </c>
-      <c r="H22" s="29">
-        <v>1</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="I22" s="29">
+        <v>1</v>
+      </c>
+      <c r="J22" s="50" t="s">
+        <v>899</v>
+      </c>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+    </row>
+    <row r="23" spans="1:16">
       <c r="B23" s="31" t="s">
         <v>591</v>
       </c>
@@ -6960,17 +7143,22 @@
       <c r="G23" s="29">
         <v>20</v>
       </c>
-      <c r="H23" s="29">
-        <v>2</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="I23" s="29">
+        <v>2</v>
+      </c>
+      <c r="J23" s="50" t="s">
+        <v>902</v>
+      </c>
+      <c r="K23" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+    </row>
+    <row r="24" spans="1:16">
       <c r="B24" s="31" t="s">
         <v>593</v>
       </c>
@@ -6989,43 +7177,50 @@
       <c r="G24" s="29">
         <v>3</v>
       </c>
-      <c r="H24" s="29">
+      <c r="I24" s="29">
         <v>5</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="K24" s="1" t="s">
+      <c r="J24" s="50" t="s">
+        <v>903</v>
+      </c>
+      <c r="K24" s="50" t="s">
         <v>904</v>
       </c>
-      <c r="L24" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="L24" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="M24" s="50" t="s">
+        <v>906</v>
+      </c>
+      <c r="N24" s="50" t="s">
+        <v>905</v>
+      </c>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+    </row>
+    <row r="25" spans="1:16">
       <c r="B25" s="29" t="s">
         <v>340</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="H25" s="29">
-        <v>2</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="I25" s="29">
+        <v>2</v>
+      </c>
+      <c r="J25" s="50" t="s">
+        <v>907</v>
+      </c>
+      <c r="K25" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+    </row>
+    <row r="26" spans="1:16">
       <c r="B26" s="35" t="s">
         <v>389</v>
       </c>
@@ -7044,20 +7239,24 @@
       <c r="G26" s="29">
         <v>30</v>
       </c>
-      <c r="H26" s="29">
+      <c r="I26" s="29">
         <v>3</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="J26" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="K26" s="50" t="s">
+        <v>908</v>
+      </c>
+      <c r="L26" s="50" t="s">
+        <v>909</v>
+      </c>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
+    </row>
+    <row r="27" spans="1:16">
       <c r="B27" s="35" t="s">
         <v>394</v>
       </c>
@@ -7076,14 +7275,19 @@
       <c r="G27" s="29">
         <v>2</v>
       </c>
-      <c r="H27" s="29">
-        <v>1</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="I27" s="29">
+        <v>1</v>
+      </c>
+      <c r="J27" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+    </row>
+    <row r="28" spans="1:16">
       <c r="B28" s="35" t="s">
         <v>430</v>
       </c>
@@ -7102,17 +7306,22 @@
       <c r="G28" s="29">
         <v>1</v>
       </c>
-      <c r="H28" s="29">
-        <v>2</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="35" customFormat="1">
+      <c r="I28" s="29">
+        <v>2</v>
+      </c>
+      <c r="J28" s="50" t="s">
+        <v>910</v>
+      </c>
+      <c r="K28" s="50" t="s">
+        <v>899</v>
+      </c>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+    </row>
+    <row r="29" spans="1:16" s="35" customFormat="1">
       <c r="B29" s="35" t="s">
         <v>433</v>
       </c>
@@ -7131,15 +7340,21 @@
       <c r="G29" s="35">
         <v>3</v>
       </c>
-      <c r="H29" s="35">
-        <v>1</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="J29" s="46"/>
-    </row>
-    <row r="30" spans="1:13" s="35" customFormat="1">
+      <c r="H29" s="46"/>
+      <c r="I29" s="35">
+        <v>1</v>
+      </c>
+      <c r="J29" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="46"/>
+    </row>
+    <row r="30" spans="1:16" s="35" customFormat="1">
       <c r="B30" s="38" t="s">
         <v>479</v>
       </c>
@@ -7158,17 +7373,23 @@
       <c r="G30" s="35">
         <v>10</v>
       </c>
-      <c r="H30" s="35">
-        <v>2</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="37" customFormat="1">
+      <c r="H30" s="46"/>
+      <c r="I30" s="35">
+        <v>2</v>
+      </c>
+      <c r="J30" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="K30" s="50" t="s">
+        <v>911</v>
+      </c>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="46"/>
+    </row>
+    <row r="31" spans="1:16" s="37" customFormat="1">
       <c r="B31" s="38" t="s">
         <v>483</v>
       </c>
@@ -7187,17 +7408,23 @@
       <c r="G31" s="37">
         <v>1</v>
       </c>
-      <c r="H31" s="37">
-        <v>2</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="37" customFormat="1">
+      <c r="H31" s="46"/>
+      <c r="I31" s="37">
+        <v>2</v>
+      </c>
+      <c r="J31" s="50" t="s">
+        <v>912</v>
+      </c>
+      <c r="K31" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+    </row>
+    <row r="32" spans="1:16" s="37" customFormat="1">
       <c r="B32" s="38" t="s">
         <v>484</v>
       </c>
@@ -7216,42 +7443,97 @@
       <c r="G32" s="37">
         <v>1</v>
       </c>
-      <c r="H32" s="37">
-        <v>1</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="J32" s="46"/>
-    </row>
-    <row r="33" spans="1:10" s="37" customFormat="1">
+      <c r="H32" s="46"/>
+      <c r="I32" s="37">
+        <v>1</v>
+      </c>
+      <c r="J32" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+    </row>
+    <row r="33" spans="1:18" s="37" customFormat="1">
       <c r="B33" s="38"/>
+      <c r="H33" s="46"/>
       <c r="J33" s="46"/>
-    </row>
-    <row r="34" spans="1:10" s="37" customFormat="1">
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+    </row>
+    <row r="34" spans="1:18" s="37" customFormat="1">
       <c r="B34" s="38"/>
+      <c r="H34" s="46"/>
       <c r="J34" s="46"/>
-    </row>
-    <row r="35" spans="1:10" s="37" customFormat="1">
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="46"/>
+    </row>
+    <row r="35" spans="1:18" s="37" customFormat="1">
       <c r="B35" s="38"/>
+      <c r="H35" s="46"/>
       <c r="J35" s="46"/>
-    </row>
-    <row r="36" spans="1:10" s="37" customFormat="1">
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="46"/>
+    </row>
+    <row r="36" spans="1:18" s="37" customFormat="1">
       <c r="B36" s="38"/>
+      <c r="H36" s="46"/>
       <c r="J36" s="46"/>
-    </row>
-    <row r="37" spans="1:10" s="37" customFormat="1">
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="46"/>
+    </row>
+    <row r="37" spans="1:18" s="37" customFormat="1">
       <c r="B37" s="38"/>
+      <c r="H37" s="46"/>
       <c r="J37" s="46"/>
-    </row>
-    <row r="38" spans="1:10" s="37" customFormat="1">
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="46"/>
+    </row>
+    <row r="38" spans="1:18" s="37" customFormat="1">
       <c r="B38" s="38"/>
+      <c r="H38" s="46"/>
       <c r="J38" s="46"/>
-    </row>
-    <row r="39" spans="1:10" s="35" customFormat="1">
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46"/>
+    </row>
+    <row r="39" spans="1:18" s="35" customFormat="1">
+      <c r="H39" s="46"/>
       <c r="J39" s="46"/>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46"/>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="29" t="s">
         <v>583</v>
       </c>
@@ -7273,8 +7555,15 @@
       <c r="G40" s="31" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="H40" s="47"/>
+      <c r="J40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="46"/>
+    </row>
+    <row r="41" spans="1:18">
       <c r="B41" s="29" t="s">
         <v>589</v>
       </c>
@@ -7293,17 +7582,110 @@
       <c r="G41" s="29">
         <v>124</v>
       </c>
-      <c r="H41" s="29">
-        <v>2</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+      <c r="I41" s="29">
+        <v>2</v>
+      </c>
+      <c r="J41" s="50" t="s">
+        <v>898</v>
+      </c>
+      <c r="K41" s="50" t="s">
+        <v>883</v>
+      </c>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="46"/>
+      <c r="P41" s="46"/>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="J42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="46"/>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="J43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="46"/>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="J44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="46"/>
+      <c r="P44" s="46"/>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="J45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="46"/>
+      <c r="P45" s="46"/>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="J46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="46"/>
+      <c r="P46" s="46"/>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="J47" s="46"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="46"/>
+      <c r="P47" s="46"/>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="J48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="46"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="46"/>
+      <c r="P48" s="46"/>
+      <c r="Q48" s="46"/>
+      <c r="R48" s="46"/>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="J49" s="46"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="46"/>
+      <c r="O49" s="46"/>
+      <c r="P49" s="46"/>
+      <c r="Q49" s="46"/>
+      <c r="R49" s="46"/>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="J50" s="46"/>
+      <c r="L50" s="46"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="46"/>
+      <c r="O50" s="46"/>
+      <c r="P50" s="46"/>
+      <c r="Q50" s="46"/>
+      <c r="R50" s="46"/>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="J51" s="46"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="46"/>
+      <c r="O51" s="46"/>
+      <c r="P51" s="46"/>
+      <c r="Q51" s="46"/>
+      <c r="R51" s="46"/>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" s="29" t="s">
         <v>595</v>
       </c>
@@ -7325,8 +7707,17 @@
       <c r="G52" s="31" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="53" spans="1:15">
+      <c r="H52" s="47"/>
+      <c r="J52" s="46"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="46"/>
+      <c r="Q52" s="46"/>
+      <c r="R52" s="46"/>
+    </row>
+    <row r="53" spans="1:18">
       <c r="B53" s="29" t="s">
         <v>597</v>
       </c>
@@ -7345,49 +7736,58 @@
       <c r="G53" s="29">
         <v>45</v>
       </c>
-      <c r="H53" s="46">
-        <v>2</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
+      <c r="I53" s="46">
+        <v>2</v>
+      </c>
+      <c r="J53" s="50" t="s">
+        <v>913</v>
+      </c>
+      <c r="K53" s="50" t="s">
+        <v>883</v>
+      </c>
+      <c r="L53" s="46"/>
+      <c r="M53" s="46"/>
+      <c r="N53" s="46"/>
+      <c r="O53" s="46"/>
+      <c r="P53" s="46"/>
+      <c r="Q53" s="46"/>
+      <c r="R53" s="46"/>
+    </row>
+    <row r="54" spans="1:18">
       <c r="B54" s="29" t="s">
         <v>615</v>
       </c>
       <c r="C54" s="29" t="s">
         <v>616</v>
       </c>
-      <c r="H54" s="29">
+      <c r="I54" s="29">
         <v>7</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="J54" s="50" t="s">
+        <v>914</v>
+      </c>
+      <c r="K54" s="50" t="s">
+        <v>883</v>
+      </c>
+      <c r="L54" s="50" t="s">
+        <v>915</v>
+      </c>
+      <c r="M54" s="50" t="s">
+        <v>916</v>
+      </c>
+      <c r="N54" s="50" t="s">
+        <v>917</v>
+      </c>
+      <c r="O54" s="50" t="s">
         <v>918</v>
       </c>
-      <c r="J54" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
+      <c r="P54" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="Q54" s="46"/>
+      <c r="R54" s="46"/>
+    </row>
+    <row r="55" spans="1:18">
       <c r="B55" s="29" t="s">
         <v>617</v>
       </c>
@@ -7406,54 +7806,74 @@
       <c r="G55" s="29">
         <v>7</v>
       </c>
-      <c r="H55" s="29">
-        <v>2</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
+      <c r="I55" s="29">
+        <v>2</v>
+      </c>
+      <c r="J55" s="50" t="s">
+        <v>919</v>
+      </c>
+      <c r="K55" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="L55" s="46"/>
+      <c r="M55" s="46"/>
+      <c r="N55" s="46"/>
+      <c r="O55" s="46"/>
+      <c r="P55" s="46"/>
+      <c r="Q55" s="46"/>
+      <c r="R55" s="46"/>
+    </row>
+    <row r="56" spans="1:18">
       <c r="B56" s="29" t="s">
         <v>630</v>
       </c>
       <c r="C56" s="29" t="s">
         <v>632</v>
       </c>
-      <c r="H56" s="29">
+      <c r="I56" s="29">
         <v>3</v>
       </c>
-      <c r="I56" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
+      <c r="J56" s="50" t="s">
+        <v>920</v>
+      </c>
+      <c r="K56" s="50" t="s">
+        <v>883</v>
+      </c>
+      <c r="L56" s="50" t="s">
+        <v>921</v>
+      </c>
+      <c r="M56" s="46"/>
+      <c r="N56" s="46"/>
+      <c r="O56" s="46"/>
+      <c r="P56" s="46"/>
+      <c r="Q56" s="46"/>
+      <c r="R56" s="46"/>
+    </row>
+    <row r="57" spans="1:18">
       <c r="B57" s="29" t="s">
         <v>633</v>
       </c>
       <c r="C57" s="29" t="s">
         <v>634</v>
       </c>
-      <c r="H57" s="29">
-        <v>2</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+      <c r="I57" s="29">
+        <v>2</v>
+      </c>
+      <c r="J57" s="50" t="s">
+        <v>922</v>
+      </c>
+      <c r="K57" s="50" t="s">
+        <v>883</v>
+      </c>
+      <c r="L57" s="46"/>
+      <c r="M57" s="46"/>
+      <c r="N57" s="46"/>
+      <c r="O57" s="46"/>
+      <c r="P57" s="46"/>
+      <c r="Q57" s="46"/>
+      <c r="R57" s="46"/>
+    </row>
+    <row r="58" spans="1:18">
       <c r="B58" s="29" t="s">
         <v>637</v>
       </c>
@@ -7472,17 +7892,24 @@
       <c r="G58" s="29">
         <v>11</v>
       </c>
-      <c r="H58" s="29">
-        <v>2</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
+      <c r="I58" s="29">
+        <v>2</v>
+      </c>
+      <c r="J58" s="50" t="s">
+        <v>898</v>
+      </c>
+      <c r="K58" s="50" t="s">
+        <v>883</v>
+      </c>
+      <c r="L58" s="46"/>
+      <c r="M58" s="46"/>
+      <c r="N58" s="46"/>
+      <c r="O58" s="46"/>
+      <c r="P58" s="46"/>
+      <c r="Q58" s="46"/>
+      <c r="R58" s="46"/>
+    </row>
+    <row r="59" spans="1:18">
       <c r="B59" s="29" t="s">
         <v>315</v>
       </c>
@@ -7501,17 +7928,24 @@
       <c r="G59" s="29">
         <v>4</v>
       </c>
-      <c r="H59" s="29">
-        <v>2</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+      <c r="I59" s="29">
+        <v>2</v>
+      </c>
+      <c r="J59" s="50" t="s">
+        <v>898</v>
+      </c>
+      <c r="K59" s="50" t="s">
+        <v>883</v>
+      </c>
+      <c r="L59" s="46"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="46"/>
+      <c r="O59" s="46"/>
+      <c r="P59" s="46"/>
+      <c r="Q59" s="46"/>
+      <c r="R59" s="46"/>
+    </row>
+    <row r="60" spans="1:18">
       <c r="B60" s="29" t="s">
         <v>320</v>
       </c>
@@ -7530,17 +7964,24 @@
       <c r="G60" s="29">
         <v>5</v>
       </c>
-      <c r="H60" s="29">
-        <v>2</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+      <c r="I60" s="29">
+        <v>2</v>
+      </c>
+      <c r="J60" s="50" t="s">
+        <v>884</v>
+      </c>
+      <c r="K60" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="L60" s="46"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="46"/>
+      <c r="O60" s="46"/>
+      <c r="P60" s="46"/>
+      <c r="Q60" s="46"/>
+      <c r="R60" s="46"/>
+    </row>
+    <row r="61" spans="1:18">
       <c r="B61" s="29" t="s">
         <v>324</v>
       </c>
@@ -7559,17 +8000,24 @@
       <c r="G61" s="29">
         <v>3</v>
       </c>
-      <c r="H61" s="29">
-        <v>2</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
+      <c r="I61" s="29">
+        <v>2</v>
+      </c>
+      <c r="J61" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="K61" s="50" t="s">
+        <v>884</v>
+      </c>
+      <c r="L61" s="46"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="46"/>
+      <c r="O61" s="46"/>
+      <c r="P61" s="46"/>
+      <c r="Q61" s="46"/>
+      <c r="R61" s="46"/>
+    </row>
+    <row r="62" spans="1:18">
       <c r="B62" s="29" t="s">
         <v>332</v>
       </c>
@@ -7588,17 +8036,22 @@
       <c r="G62" s="29">
         <v>3</v>
       </c>
-      <c r="H62" s="29">
-        <v>2</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
+      <c r="I62" s="29">
+        <v>2</v>
+      </c>
+      <c r="J62" s="50" t="s">
+        <v>923</v>
+      </c>
+      <c r="K62" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="L62" s="46"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="46"/>
+      <c r="O62" s="46"/>
+      <c r="P62" s="46"/>
+    </row>
+    <row r="63" spans="1:18">
       <c r="B63" s="29" t="s">
         <v>349</v>
       </c>
@@ -7617,14 +8070,19 @@
       <c r="G63" s="29">
         <v>58</v>
       </c>
-      <c r="H63" s="29">
-        <v>1</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
+      <c r="I63" s="29">
+        <v>1</v>
+      </c>
+      <c r="J63" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="L63" s="46"/>
+      <c r="M63" s="46"/>
+      <c r="N63" s="46"/>
+      <c r="O63" s="46"/>
+      <c r="P63" s="46"/>
+    </row>
+    <row r="64" spans="1:18">
       <c r="B64" s="35" t="s">
         <v>411</v>
       </c>
@@ -7643,17 +8101,22 @@
       <c r="G64" s="29">
         <v>89</v>
       </c>
-      <c r="H64" s="29">
-        <v>2</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" s="35" customFormat="1">
+      <c r="I64" s="29">
+        <v>2</v>
+      </c>
+      <c r="J64" s="50" t="s">
+        <v>910</v>
+      </c>
+      <c r="K64" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="L64" s="46"/>
+      <c r="M64" s="46"/>
+      <c r="N64" s="46"/>
+      <c r="O64" s="46"/>
+      <c r="P64" s="46"/>
+    </row>
+    <row r="65" spans="1:16" s="35" customFormat="1">
       <c r="B65" s="35" t="s">
         <v>415</v>
       </c>
@@ -7672,20 +8135,25 @@
       <c r="G65" s="35">
         <v>94</v>
       </c>
-      <c r="H65" s="35">
+      <c r="H65" s="46"/>
+      <c r="I65" s="35">
         <v>3</v>
       </c>
-      <c r="I65" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" s="35" customFormat="1">
+      <c r="J65" s="50" t="s">
+        <v>924</v>
+      </c>
+      <c r="K65" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="L65" s="50" t="s">
+        <v>911</v>
+      </c>
+      <c r="M65" s="46"/>
+      <c r="N65" s="46"/>
+      <c r="O65" s="46"/>
+      <c r="P65" s="46"/>
+    </row>
+    <row r="66" spans="1:16" s="35" customFormat="1">
       <c r="B66" s="35" t="s">
         <v>426</v>
       </c>
@@ -7704,17 +8172,23 @@
       <c r="G66" s="35">
         <v>7</v>
       </c>
-      <c r="H66" s="35">
-        <v>2</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" s="35" customFormat="1">
+      <c r="H66" s="46"/>
+      <c r="I66" s="35">
+        <v>2</v>
+      </c>
+      <c r="J66" s="50" t="s">
+        <v>910</v>
+      </c>
+      <c r="K66" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="L66" s="46"/>
+      <c r="M66" s="46"/>
+      <c r="N66" s="46"/>
+      <c r="O66" s="46"/>
+      <c r="P66" s="46"/>
+    </row>
+    <row r="67" spans="1:16" s="35" customFormat="1">
       <c r="B67" s="35" t="s">
         <v>436</v>
       </c>
@@ -7733,15 +8207,21 @@
       <c r="G67" s="35">
         <v>5</v>
       </c>
-      <c r="H67" s="35">
-        <v>1</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="J67" s="46"/>
-    </row>
-    <row r="68" spans="1:11" s="35" customFormat="1">
+      <c r="H67" s="46"/>
+      <c r="I67" s="35">
+        <v>1</v>
+      </c>
+      <c r="J67" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="K67" s="46"/>
+      <c r="L67" s="46"/>
+      <c r="M67" s="46"/>
+      <c r="N67" s="46"/>
+      <c r="O67" s="46"/>
+      <c r="P67" s="46"/>
+    </row>
+    <row r="68" spans="1:16" s="35" customFormat="1">
       <c r="B68" s="36" t="s">
         <v>454</v>
       </c>
@@ -7760,15 +8240,21 @@
       <c r="G68" s="35">
         <v>17</v>
       </c>
-      <c r="H68" s="35">
-        <v>1</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="J68" s="46"/>
-    </row>
-    <row r="69" spans="1:11" s="35" customFormat="1">
+      <c r="H68" s="46"/>
+      <c r="I68" s="35">
+        <v>1</v>
+      </c>
+      <c r="J68" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="K68" s="46"/>
+      <c r="L68" s="46"/>
+      <c r="M68" s="46"/>
+      <c r="N68" s="46"/>
+      <c r="O68" s="46"/>
+      <c r="P68" s="46"/>
+    </row>
+    <row r="69" spans="1:16" s="35" customFormat="1">
       <c r="B69" s="38" t="s">
         <v>482</v>
       </c>
@@ -7787,15 +8273,21 @@
       <c r="G69" s="35">
         <v>2</v>
       </c>
-      <c r="H69" s="35">
-        <v>1</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="J69" s="46"/>
-    </row>
-    <row r="70" spans="1:11" s="35" customFormat="1">
+      <c r="H69" s="46"/>
+      <c r="I69" s="35">
+        <v>1</v>
+      </c>
+      <c r="J69" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="K69" s="46"/>
+      <c r="L69" s="46"/>
+      <c r="M69" s="46"/>
+      <c r="N69" s="46"/>
+      <c r="O69" s="46"/>
+      <c r="P69" s="46"/>
+    </row>
+    <row r="70" spans="1:16" s="35" customFormat="1">
       <c r="B70" s="38" t="s">
         <v>485</v>
       </c>
@@ -7814,17 +8306,23 @@
       <c r="G70" s="35">
         <v>0</v>
       </c>
-      <c r="H70" s="35">
-        <v>1</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="J70" s="46"/>
-    </row>
-    <row r="71" spans="1:11" s="37" customFormat="1">
+      <c r="H70" s="46"/>
+      <c r="I70" s="35">
+        <v>1</v>
+      </c>
+      <c r="J70" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="K70" s="46"/>
+      <c r="L70" s="46"/>
+      <c r="M70" s="46"/>
+      <c r="N70" s="46"/>
+      <c r="O70" s="46"/>
+      <c r="P70" s="46"/>
+    </row>
+    <row r="71" spans="1:16" s="37" customFormat="1">
       <c r="A71" s="47" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="B71" s="39" t="s">
         <v>650</v>
@@ -7844,9 +8342,16 @@
       <c r="G71" s="37">
         <v>3</v>
       </c>
+      <c r="H71" s="46"/>
       <c r="J71" s="46"/>
-    </row>
-    <row r="72" spans="1:11" s="37" customFormat="1">
+      <c r="K71" s="46"/>
+      <c r="L71" s="46"/>
+      <c r="M71" s="46"/>
+      <c r="N71" s="46"/>
+      <c r="O71" s="46"/>
+      <c r="P71" s="46"/>
+    </row>
+    <row r="72" spans="1:16" s="37" customFormat="1">
       <c r="B72" s="40" t="s">
         <v>653</v>
       </c>
@@ -7865,20 +8370,25 @@
       <c r="G72" s="37">
         <v>44</v>
       </c>
-      <c r="H72" s="37">
+      <c r="H72" s="46"/>
+      <c r="I72" s="37">
         <v>3</v>
       </c>
-      <c r="I72" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" s="35" customFormat="1">
+      <c r="J72" s="50" t="s">
+        <v>910</v>
+      </c>
+      <c r="K72" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="L72" s="50" t="s">
+        <v>903</v>
+      </c>
+      <c r="M72" s="46"/>
+      <c r="N72" s="46"/>
+      <c r="O72" s="46"/>
+      <c r="P72" s="46"/>
+    </row>
+    <row r="73" spans="1:16" s="35" customFormat="1">
       <c r="B73" s="41" t="s">
         <v>656</v>
       </c>
@@ -7897,20 +8407,25 @@
       <c r="G73" s="35">
         <v>3</v>
       </c>
-      <c r="H73" s="35">
+      <c r="H73" s="46"/>
+      <c r="I73" s="35">
         <v>3</v>
       </c>
-      <c r="I73" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" s="35" customFormat="1">
+      <c r="J73" s="50" t="s">
+        <v>910</v>
+      </c>
+      <c r="K73" s="50" t="s">
+        <v>926</v>
+      </c>
+      <c r="L73" s="50" t="s">
+        <v>903</v>
+      </c>
+      <c r="M73" s="46"/>
+      <c r="N73" s="46"/>
+      <c r="O73" s="46"/>
+      <c r="P73" s="46"/>
+    </row>
+    <row r="74" spans="1:16" s="35" customFormat="1">
       <c r="B74" s="38" t="s">
         <v>662</v>
       </c>
@@ -7929,9 +8444,16 @@
       <c r="G74" s="38" t="s">
         <v>540</v>
       </c>
+      <c r="H74" s="47"/>
       <c r="J74" s="46"/>
-    </row>
-    <row r="75" spans="1:11" s="37" customFormat="1">
+      <c r="K74" s="46"/>
+      <c r="L74" s="46"/>
+      <c r="M74" s="46"/>
+      <c r="N74" s="46"/>
+      <c r="O74" s="46"/>
+      <c r="P74" s="46"/>
+    </row>
+    <row r="75" spans="1:16" s="37" customFormat="1">
       <c r="B75" s="44" t="s">
         <v>63</v>
       </c>
@@ -7950,30 +8472,58 @@
       <c r="G75" s="38">
         <v>25</v>
       </c>
+      <c r="H75" s="47"/>
       <c r="J75" s="46"/>
-    </row>
-    <row r="76" spans="1:11" s="37" customFormat="1">
+      <c r="K75" s="46"/>
+      <c r="L75" s="46"/>
+      <c r="M75" s="46"/>
+      <c r="N75" s="46"/>
+      <c r="O75" s="46"/>
+      <c r="P75" s="46"/>
+    </row>
+    <row r="76" spans="1:16" s="37" customFormat="1">
       <c r="B76" s="38"/>
       <c r="C76" s="38"/>
       <c r="D76" s="38"/>
       <c r="E76" s="38"/>
       <c r="F76" s="38"/>
       <c r="G76" s="38"/>
+      <c r="H76" s="47"/>
       <c r="J76" s="46"/>
-    </row>
-    <row r="77" spans="1:11" s="37" customFormat="1">
+      <c r="K76" s="46"/>
+      <c r="L76" s="46"/>
+      <c r="M76" s="46"/>
+      <c r="N76" s="46"/>
+      <c r="O76" s="46"/>
+      <c r="P76" s="46"/>
+    </row>
+    <row r="77" spans="1:16" s="37" customFormat="1">
       <c r="B77" s="38"/>
       <c r="C77" s="38"/>
       <c r="D77" s="38"/>
       <c r="E77" s="38"/>
       <c r="F77" s="38"/>
       <c r="G77" s="38"/>
+      <c r="H77" s="47"/>
       <c r="J77" s="46"/>
-    </row>
-    <row r="78" spans="1:11" s="35" customFormat="1">
+      <c r="K77" s="46"/>
+      <c r="L77" s="46"/>
+      <c r="M77" s="46"/>
+      <c r="N77" s="46"/>
+      <c r="O77" s="46"/>
+      <c r="P77" s="46"/>
+    </row>
+    <row r="78" spans="1:16" s="35" customFormat="1">
+      <c r="H78" s="46"/>
       <c r="J78" s="46"/>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="K78" s="46"/>
+      <c r="L78" s="46"/>
+      <c r="M78" s="46"/>
+      <c r="N78" s="46"/>
+      <c r="O78" s="46"/>
+      <c r="P78" s="46"/>
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79" s="29" t="s">
         <v>598</v>
       </c>
@@ -7995,8 +8545,15 @@
       <c r="G79" s="31" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="H79" s="47"/>
+      <c r="J79" s="46"/>
+      <c r="L79" s="46"/>
+      <c r="M79" s="46"/>
+      <c r="N79" s="46"/>
+      <c r="O79" s="46"/>
+      <c r="P79" s="46"/>
+    </row>
+    <row r="80" spans="1:16">
       <c r="B80" s="31" t="s">
         <v>620</v>
       </c>
@@ -8015,17 +8572,22 @@
       <c r="G80" s="29">
         <v>12</v>
       </c>
-      <c r="H80" s="29">
-        <v>2</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="I80" s="29">
+        <v>2</v>
+      </c>
+      <c r="J80" s="50" t="s">
+        <v>921</v>
+      </c>
+      <c r="K80" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="L80" s="46"/>
+      <c r="M80" s="46"/>
+      <c r="N80" s="46"/>
+      <c r="O80" s="46"/>
+      <c r="P80" s="46"/>
+    </row>
+    <row r="81" spans="1:16">
       <c r="B81" s="29" t="s">
         <v>335</v>
       </c>
@@ -8044,8 +8606,19 @@
       <c r="G81" s="29">
         <v>27</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="I81" s="29">
+        <v>1</v>
+      </c>
+      <c r="J81" s="50" t="s">
+        <v>883</v>
+      </c>
+      <c r="L81" s="46"/>
+      <c r="M81" s="46"/>
+      <c r="N81" s="46"/>
+      <c r="O81" s="46"/>
+      <c r="P81" s="46"/>
+    </row>
+    <row r="82" spans="1:16">
       <c r="B82" s="29" t="s">
         <v>343</v>
       </c>
@@ -8064,8 +8637,22 @@
       <c r="G82" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="I82" s="29">
+        <v>2</v>
+      </c>
+      <c r="J82" s="50" t="s">
+        <v>927</v>
+      </c>
+      <c r="K82" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="L82" s="46"/>
+      <c r="M82" s="46"/>
+      <c r="N82" s="46"/>
+      <c r="O82" s="46"/>
+      <c r="P82" s="46"/>
+    </row>
+    <row r="83" spans="1:16">
       <c r="B83" s="29" t="s">
         <v>354</v>
       </c>
@@ -8084,8 +8671,22 @@
       <c r="G83" s="29">
         <v>2421</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="I83" s="29">
+        <v>2</v>
+      </c>
+      <c r="J83" s="50" t="s">
+        <v>883</v>
+      </c>
+      <c r="K83" s="50" t="s">
+        <v>910</v>
+      </c>
+      <c r="L83" s="46"/>
+      <c r="M83" s="46"/>
+      <c r="N83" s="46"/>
+      <c r="O83" s="46"/>
+      <c r="P83" s="46"/>
+    </row>
+    <row r="84" spans="1:16">
       <c r="B84" s="35" t="s">
         <v>446</v>
       </c>
@@ -8104,8 +8705,24 @@
       <c r="G84" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" s="35" customFormat="1">
+      <c r="I84" s="29">
+        <v>3</v>
+      </c>
+      <c r="J84" s="50" t="s">
+        <v>928</v>
+      </c>
+      <c r="K84" s="50" t="s">
+        <v>929</v>
+      </c>
+      <c r="L84" s="50" t="s">
+        <v>899</v>
+      </c>
+      <c r="M84" s="46"/>
+      <c r="N84" s="46"/>
+      <c r="O84" s="46"/>
+      <c r="P84" s="46"/>
+    </row>
+    <row r="85" spans="1:16" s="35" customFormat="1">
       <c r="B85" s="35" t="s">
         <v>450</v>
       </c>
@@ -8124,9 +8741,21 @@
       <c r="G85" s="35">
         <v>5</v>
       </c>
-      <c r="J85" s="46"/>
-    </row>
-    <row r="86" spans="1:10" s="35" customFormat="1">
+      <c r="H85" s="46"/>
+      <c r="I85" s="35">
+        <v>1</v>
+      </c>
+      <c r="J85" s="50" t="s">
+        <v>899</v>
+      </c>
+      <c r="K85" s="46"/>
+      <c r="L85" s="46"/>
+      <c r="M85" s="46"/>
+      <c r="N85" s="46"/>
+      <c r="O85" s="46"/>
+      <c r="P85" s="46"/>
+    </row>
+    <row r="86" spans="1:16" s="35" customFormat="1">
       <c r="B86" s="36" t="s">
         <v>458</v>
       </c>
@@ -8145,9 +8774,21 @@
       <c r="G86" s="35">
         <v>4</v>
       </c>
-      <c r="J86" s="46"/>
-    </row>
-    <row r="87" spans="1:10" s="35" customFormat="1">
+      <c r="H86" s="46"/>
+      <c r="I86" s="35">
+        <v>1</v>
+      </c>
+      <c r="J86" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="K86" s="46"/>
+      <c r="L86" s="46"/>
+      <c r="M86" s="46"/>
+      <c r="N86" s="46"/>
+      <c r="O86" s="46"/>
+      <c r="P86" s="46"/>
+    </row>
+    <row r="87" spans="1:16" s="35" customFormat="1">
       <c r="B87" s="38" t="s">
         <v>465</v>
       </c>
@@ -8166,9 +8807,23 @@
       <c r="G87" s="35">
         <v>6</v>
       </c>
-      <c r="J87" s="46"/>
-    </row>
-    <row r="88" spans="1:10" s="35" customFormat="1">
+      <c r="H87" s="46"/>
+      <c r="I87" s="35">
+        <v>2</v>
+      </c>
+      <c r="J87" s="50" t="s">
+        <v>911</v>
+      </c>
+      <c r="K87" s="50" t="s">
+        <v>899</v>
+      </c>
+      <c r="L87" s="46"/>
+      <c r="M87" s="46"/>
+      <c r="N87" s="46"/>
+      <c r="O87" s="46"/>
+      <c r="P87" s="46"/>
+    </row>
+    <row r="88" spans="1:16" s="35" customFormat="1">
       <c r="B88" s="38" t="s">
         <v>468</v>
       </c>
@@ -8187,9 +8842,21 @@
       <c r="G88" s="35">
         <v>3</v>
       </c>
-      <c r="J88" s="46"/>
-    </row>
-    <row r="89" spans="1:10" s="35" customFormat="1">
+      <c r="H88" s="46"/>
+      <c r="I88" s="35">
+        <v>1</v>
+      </c>
+      <c r="J88" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="K88" s="46"/>
+      <c r="L88" s="46"/>
+      <c r="M88" s="46"/>
+      <c r="N88" s="46"/>
+      <c r="O88" s="46"/>
+      <c r="P88" s="46"/>
+    </row>
+    <row r="89" spans="1:16" s="35" customFormat="1">
       <c r="B89" s="38" t="s">
         <v>472</v>
       </c>
@@ -8208,9 +8875,21 @@
       <c r="G89" s="35">
         <v>2</v>
       </c>
-      <c r="J89" s="46"/>
-    </row>
-    <row r="90" spans="1:10" s="35" customFormat="1">
+      <c r="H89" s="46"/>
+      <c r="I89" s="35">
+        <v>1</v>
+      </c>
+      <c r="J89" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="K89" s="46"/>
+      <c r="L89" s="46"/>
+      <c r="M89" s="46"/>
+      <c r="N89" s="46"/>
+      <c r="O89" s="46"/>
+      <c r="P89" s="46"/>
+    </row>
+    <row r="90" spans="1:16" s="35" customFormat="1">
       <c r="B90" s="38" t="s">
         <v>476</v>
       </c>
@@ -8229,9 +8908,21 @@
       <c r="G90" s="35">
         <v>24</v>
       </c>
-      <c r="J90" s="46"/>
-    </row>
-    <row r="91" spans="1:10" s="35" customFormat="1">
+      <c r="H90" s="46"/>
+      <c r="I90" s="35">
+        <v>1</v>
+      </c>
+      <c r="J90" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="K90" s="46"/>
+      <c r="L90" s="46"/>
+      <c r="M90" s="46"/>
+      <c r="N90" s="46"/>
+      <c r="O90" s="46"/>
+      <c r="P90" s="46"/>
+    </row>
+    <row r="91" spans="1:16" s="35" customFormat="1">
       <c r="B91" s="38" t="s">
         <v>480</v>
       </c>
@@ -8250,9 +8941,27 @@
       <c r="G91" s="35">
         <v>2</v>
       </c>
-      <c r="J91" s="46"/>
-    </row>
-    <row r="92" spans="1:10" s="37" customFormat="1">
+      <c r="H91" s="46"/>
+      <c r="I91" s="35">
+        <v>4</v>
+      </c>
+      <c r="J91" s="50" t="s">
+        <v>930</v>
+      </c>
+      <c r="K91" s="50" t="s">
+        <v>899</v>
+      </c>
+      <c r="L91" s="50" t="s">
+        <v>931</v>
+      </c>
+      <c r="M91" s="50" t="s">
+        <v>932</v>
+      </c>
+      <c r="N91" s="46"/>
+      <c r="O91" s="46"/>
+      <c r="P91" s="46"/>
+    </row>
+    <row r="92" spans="1:16" s="37" customFormat="1">
       <c r="B92" s="38" t="s">
         <v>486</v>
       </c>
@@ -8271,9 +8980,23 @@
       <c r="G92" s="37">
         <v>9</v>
       </c>
-      <c r="J92" s="46"/>
-    </row>
-    <row r="93" spans="1:10" s="37" customFormat="1">
+      <c r="H92" s="46"/>
+      <c r="I92" s="37">
+        <v>2</v>
+      </c>
+      <c r="J92" s="50" t="s">
+        <v>910</v>
+      </c>
+      <c r="K92" s="50" t="s">
+        <v>899</v>
+      </c>
+      <c r="L92" s="46"/>
+      <c r="M92" s="46"/>
+      <c r="N92" s="46"/>
+      <c r="O92" s="46"/>
+      <c r="P92" s="46"/>
+    </row>
+    <row r="93" spans="1:16" s="37" customFormat="1">
       <c r="A93" s="38" t="s">
         <v>661</v>
       </c>
@@ -8295,14 +9018,33 @@
       <c r="G93" s="37">
         <v>1</v>
       </c>
-      <c r="J93" s="46"/>
-    </row>
-    <row r="94" spans="1:10" s="37" customFormat="1">
+      <c r="H93" s="46"/>
+      <c r="I93" s="37">
+        <v>1</v>
+      </c>
+      <c r="J93" s="50" t="s">
+        <v>921</v>
+      </c>
+      <c r="K93" s="46"/>
+      <c r="L93" s="46"/>
+      <c r="M93" s="46"/>
+      <c r="N93" s="46"/>
+      <c r="O93" s="46"/>
+      <c r="P93" s="46"/>
+    </row>
+    <row r="94" spans="1:16" s="37" customFormat="1">
       <c r="B94" s="38"/>
       <c r="C94" s="38"/>
+      <c r="H94" s="46"/>
       <c r="J94" s="46"/>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94" s="46"/>
+      <c r="L94" s="46"/>
+      <c r="M94" s="46"/>
+      <c r="N94" s="46"/>
+      <c r="O94" s="46"/>
+      <c r="P94" s="46"/>
+    </row>
+    <row r="95" spans="1:16">
       <c r="A95" s="29" t="s">
         <v>599</v>
       </c>
@@ -8324,8 +9066,63 @@
       <c r="G95" s="31" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="H95" s="47"/>
+      <c r="J95" s="46"/>
+      <c r="L95" s="46"/>
+      <c r="M95" s="46"/>
+      <c r="N95" s="46"/>
+      <c r="O95" s="46"/>
+      <c r="P95" s="46"/>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="J96" s="46"/>
+      <c r="L96" s="46"/>
+      <c r="M96" s="46"/>
+      <c r="N96" s="46"/>
+      <c r="O96" s="46"/>
+      <c r="P96" s="46"/>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="J97" s="46"/>
+      <c r="L97" s="46"/>
+      <c r="M97" s="46"/>
+      <c r="N97" s="46"/>
+      <c r="O97" s="46"/>
+      <c r="P97" s="46"/>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="J98" s="46"/>
+      <c r="L98" s="46"/>
+      <c r="M98" s="46"/>
+      <c r="N98" s="46"/>
+      <c r="O98" s="46"/>
+      <c r="P98" s="46"/>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="J99" s="46"/>
+      <c r="L99" s="46"/>
+      <c r="M99" s="46"/>
+      <c r="N99" s="46"/>
+      <c r="O99" s="46"/>
+      <c r="P99" s="46"/>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="J100" s="46"/>
+      <c r="L100" s="46"/>
+      <c r="M100" s="46"/>
+      <c r="N100" s="46"/>
+      <c r="O100" s="46"/>
+      <c r="P100" s="46"/>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="J101" s="46"/>
+      <c r="L101" s="46"/>
+      <c r="M101" s="46"/>
+      <c r="N101" s="46"/>
+      <c r="O101" s="46"/>
+      <c r="P101" s="46"/>
+    </row>
+    <row r="102" spans="1:16">
       <c r="A102" s="29" t="s">
         <v>600</v>
       </c>
@@ -8347,8 +9144,31 @@
       <c r="G102" s="31" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="H102" s="47"/>
+      <c r="J102" s="46"/>
+      <c r="L102" s="46"/>
+      <c r="M102" s="46"/>
+      <c r="N102" s="46"/>
+      <c r="O102" s="46"/>
+      <c r="P102" s="46"/>
+    </row>
+    <row r="103" spans="1:16">
+      <c r="J103" s="46"/>
+      <c r="L103" s="46"/>
+      <c r="M103" s="46"/>
+      <c r="N103" s="46"/>
+      <c r="O103" s="46"/>
+      <c r="P103" s="46"/>
+    </row>
+    <row r="104" spans="1:16">
+      <c r="J104" s="46"/>
+      <c r="L104" s="46"/>
+      <c r="M104" s="46"/>
+      <c r="N104" s="46"/>
+      <c r="O104" s="46"/>
+      <c r="P104" s="46"/>
+    </row>
+    <row r="105" spans="1:16">
       <c r="A105" s="29" t="s">
         <v>610</v>
       </c>
@@ -8370,32 +9190,83 @@
       <c r="G105" s="31" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="H105" s="47"/>
+      <c r="J105" s="46"/>
+      <c r="L105" s="46"/>
+      <c r="M105" s="46"/>
+      <c r="N105" s="46"/>
+      <c r="O105" s="46"/>
+      <c r="P105" s="46"/>
+    </row>
+    <row r="106" spans="1:16">
       <c r="B106" s="29" t="s">
         <v>609</v>
       </c>
       <c r="C106" s="29" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="I106" s="29">
+        <v>2</v>
+      </c>
+      <c r="J106" s="50" t="s">
+        <v>933</v>
+      </c>
+      <c r="K106" s="50" t="s">
+        <v>883</v>
+      </c>
+      <c r="L106" s="46"/>
+      <c r="M106" s="46"/>
+      <c r="N106" s="46"/>
+      <c r="O106" s="46"/>
+      <c r="P106" s="46"/>
+    </row>
+    <row r="107" spans="1:16">
       <c r="B107" s="29" t="s">
         <v>611</v>
       </c>
       <c r="C107" s="29" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="I107" s="29">
+        <v>2</v>
+      </c>
+      <c r="J107" s="50" t="s">
+        <v>893</v>
+      </c>
+      <c r="K107" s="50" t="s">
+        <v>883</v>
+      </c>
+      <c r="L107" s="46"/>
+      <c r="M107" s="46"/>
+      <c r="N107" s="46"/>
+      <c r="O107" s="46"/>
+      <c r="P107" s="46"/>
+    </row>
+    <row r="108" spans="1:16">
       <c r="B108" s="29" t="s">
         <v>622</v>
       </c>
       <c r="C108" s="29" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="I108" s="29">
+        <v>3</v>
+      </c>
+      <c r="J108" s="50" t="s">
+        <v>934</v>
+      </c>
+      <c r="K108" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="L108" s="50" t="s">
+        <v>909</v>
+      </c>
+      <c r="M108" s="46"/>
+      <c r="N108" s="46"/>
+      <c r="O108" s="46"/>
+      <c r="P108" s="46"/>
+    </row>
+    <row r="109" spans="1:16">
       <c r="B109" s="38" t="s">
         <v>507</v>
       </c>
@@ -8414,8 +9285,30 @@
       <c r="G109" s="29">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="I109" s="29">
+        <v>2</v>
+      </c>
+      <c r="J109" s="50" t="s">
+        <v>935</v>
+      </c>
+      <c r="K109" s="50" t="s">
+        <v>899</v>
+      </c>
+      <c r="L109" s="46"/>
+      <c r="M109" s="46"/>
+      <c r="N109" s="46"/>
+      <c r="O109" s="46"/>
+      <c r="P109" s="46"/>
+    </row>
+    <row r="110" spans="1:16">
+      <c r="J110" s="46"/>
+      <c r="L110" s="46"/>
+      <c r="M110" s="46"/>
+      <c r="N110" s="46"/>
+      <c r="O110" s="46"/>
+      <c r="P110" s="46"/>
+    </row>
+    <row r="111" spans="1:16">
       <c r="A111" s="29" t="s">
         <v>640</v>
       </c>
@@ -8437,8 +9330,15 @@
       <c r="G111" s="31" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="H111" s="47"/>
+      <c r="J111" s="46"/>
+      <c r="L111" s="46"/>
+      <c r="M111" s="46"/>
+      <c r="N111" s="46"/>
+      <c r="O111" s="46"/>
+      <c r="P111" s="46"/>
+    </row>
+    <row r="112" spans="1:16">
       <c r="B112" s="29" t="s">
         <v>326</v>
       </c>
@@ -8457,8 +9357,30 @@
       <c r="G112" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="I112" s="29">
+        <v>2</v>
+      </c>
+      <c r="J112" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="K112" s="50" t="s">
+        <v>884</v>
+      </c>
+      <c r="L112" s="46"/>
+      <c r="M112" s="46"/>
+      <c r="N112" s="46"/>
+      <c r="O112" s="46"/>
+      <c r="P112" s="46"/>
+    </row>
+    <row r="113" spans="1:16">
+      <c r="J113" s="46"/>
+      <c r="L113" s="46"/>
+      <c r="M113" s="46"/>
+      <c r="N113" s="46"/>
+      <c r="O113" s="46"/>
+      <c r="P113" s="46"/>
+    </row>
+    <row r="114" spans="1:16">
       <c r="A114" s="29" t="s">
         <v>642</v>
       </c>
@@ -8480,8 +9402,15 @@
       <c r="G114" s="31" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="H114" s="47"/>
+      <c r="J114" s="46"/>
+      <c r="L114" s="46"/>
+      <c r="M114" s="46"/>
+      <c r="N114" s="46"/>
+      <c r="O114" s="46"/>
+      <c r="P114" s="46"/>
+    </row>
+    <row r="115" spans="1:16">
       <c r="B115" s="29" t="s">
         <v>643</v>
       </c>
@@ -8500,8 +9429,22 @@
       <c r="G115" s="29">
         <v>35</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="I115" s="29">
+        <v>2</v>
+      </c>
+      <c r="J115" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="K115" s="50" t="s">
+        <v>931</v>
+      </c>
+      <c r="L115" s="46"/>
+      <c r="M115" s="46"/>
+      <c r="N115" s="46"/>
+      <c r="O115" s="46"/>
+      <c r="P115" s="46"/>
+    </row>
+    <row r="116" spans="1:16">
       <c r="B116" s="29" t="s">
         <v>375</v>
       </c>
@@ -8520,8 +9463,19 @@
       <c r="G116" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="I116" s="29">
+        <v>1</v>
+      </c>
+      <c r="J116" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="L116" s="46"/>
+      <c r="M116" s="46"/>
+      <c r="N116" s="46"/>
+      <c r="O116" s="46"/>
+      <c r="P116" s="46"/>
+    </row>
+    <row r="117" spans="1:16">
       <c r="B117" s="29" t="s">
         <v>379</v>
       </c>
@@ -8540,10 +9494,32 @@
       <c r="G117" s="29">
         <v>16</v>
       </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="I117" s="29">
+        <v>2</v>
+      </c>
+      <c r="J117" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="K117" s="50" t="s">
+        <v>936</v>
+      </c>
+      <c r="L117" s="46"/>
+      <c r="M117" s="46"/>
+      <c r="N117" s="46"/>
+      <c r="O117" s="46"/>
+      <c r="P117" s="46"/>
+    </row>
+    <row r="118" spans="1:16">
+      <c r="J118" s="46"/>
+      <c r="L118" s="46"/>
+      <c r="M118" s="46"/>
+      <c r="N118" s="46"/>
+      <c r="O118" s="46"/>
+      <c r="P118" s="46"/>
+    </row>
+    <row r="119" spans="1:16">
       <c r="A119" s="29" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B119" s="38" t="s">
         <v>576</v>
@@ -8563,8 +9539,15 @@
       <c r="G119" s="38" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" s="35" customFormat="1">
+      <c r="H119" s="47"/>
+      <c r="J119" s="46"/>
+      <c r="L119" s="46"/>
+      <c r="M119" s="46"/>
+      <c r="N119" s="46"/>
+      <c r="O119" s="46"/>
+      <c r="P119" s="46"/>
+    </row>
+    <row r="120" spans="1:16" s="35" customFormat="1">
       <c r="B120" s="36" t="s">
         <v>461</v>
       </c>
@@ -8583,17 +9566,43 @@
       <c r="G120" s="35">
         <v>2</v>
       </c>
-      <c r="J120" s="46"/>
-    </row>
-    <row r="121" spans="1:10" s="35" customFormat="1">
+      <c r="H120" s="46"/>
+      <c r="I120" s="35">
+        <v>1</v>
+      </c>
+      <c r="J120" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="K120" s="46"/>
+      <c r="L120" s="46"/>
+      <c r="M120" s="46"/>
+      <c r="N120" s="46"/>
+      <c r="O120" s="46"/>
+      <c r="P120" s="46"/>
+    </row>
+    <row r="121" spans="1:16" s="35" customFormat="1">
+      <c r="H121" s="46"/>
       <c r="J121" s="46"/>
-    </row>
-    <row r="122" spans="1:10" s="35" customFormat="1">
+      <c r="K121" s="46"/>
+      <c r="L121" s="46"/>
+      <c r="M121" s="46"/>
+      <c r="N121" s="46"/>
+      <c r="O121" s="46"/>
+      <c r="P121" s="46"/>
+    </row>
+    <row r="122" spans="1:16" s="35" customFormat="1">
+      <c r="H122" s="46"/>
       <c r="J122" s="46"/>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="K122" s="46"/>
+      <c r="L122" s="46"/>
+      <c r="M122" s="46"/>
+      <c r="N122" s="46"/>
+      <c r="O122" s="46"/>
+      <c r="P122" s="46"/>
+    </row>
+    <row r="123" spans="1:16">
       <c r="A123" s="29" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B123" s="31" t="s">
         <v>605</v>
@@ -8613,120 +9622,289 @@
       <c r="G123" s="31" t="s">
         <v>540</v>
       </c>
-      <c r="H123" s="38" t="s">
+      <c r="H123" s="47" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="I123" s="38"/>
+      <c r="J123" s="46"/>
+      <c r="L123" s="46"/>
+      <c r="M123" s="46"/>
+      <c r="N123" s="46"/>
+      <c r="O123" s="46"/>
+      <c r="P123" s="46"/>
+    </row>
+    <row r="124" spans="1:16">
       <c r="B124" s="29" t="s">
         <v>601</v>
       </c>
       <c r="C124" s="29" t="s">
         <v>602</v>
       </c>
-      <c r="H124" s="38" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="H124" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="I124" s="46">
+        <v>2</v>
+      </c>
+      <c r="J124" s="50" t="s">
+        <v>918</v>
+      </c>
+      <c r="K124" s="50" t="s">
+        <v>934</v>
+      </c>
+      <c r="L124" s="46"/>
+      <c r="M124" s="46"/>
+      <c r="N124" s="46"/>
+      <c r="O124" s="46"/>
+      <c r="P124" s="46"/>
+    </row>
+    <row r="125" spans="1:16">
       <c r="B125" s="29" t="s">
         <v>603</v>
       </c>
       <c r="C125" s="29" t="s">
         <v>604</v>
       </c>
-      <c r="H125" s="38" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="H125" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="I125" s="46">
+        <v>5</v>
+      </c>
+      <c r="J125" s="50" t="s">
+        <v>937</v>
+      </c>
+      <c r="K125" s="50" t="s">
+        <v>883</v>
+      </c>
+      <c r="L125" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="M125" s="50" t="s">
+        <v>938</v>
+      </c>
+      <c r="N125" s="50" t="s">
+        <v>939</v>
+      </c>
+      <c r="O125" s="46"/>
+      <c r="P125" s="46"/>
+    </row>
+    <row r="126" spans="1:16">
       <c r="B126" s="29" t="s">
         <v>606</v>
       </c>
       <c r="C126" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="H126" s="38" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="H126" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="I126" s="38">
+        <v>2</v>
+      </c>
+      <c r="J126" s="50" t="s">
+        <v>940</v>
+      </c>
+      <c r="K126" s="50" t="s">
+        <v>934</v>
+      </c>
+      <c r="L126" s="46"/>
+      <c r="M126" s="46"/>
+      <c r="N126" s="46"/>
+      <c r="O126" s="46"/>
+      <c r="P126" s="46"/>
+    </row>
+    <row r="127" spans="1:16">
       <c r="B127" s="29" t="s">
         <v>613</v>
       </c>
       <c r="C127" s="29" t="s">
         <v>614</v>
       </c>
-      <c r="H127" s="38" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="H127" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="I127" s="38">
+        <v>2</v>
+      </c>
+      <c r="J127" s="50" t="s">
+        <v>941</v>
+      </c>
+      <c r="K127" s="50" t="s">
+        <v>934</v>
+      </c>
+      <c r="L127" s="46"/>
+      <c r="M127" s="46"/>
+      <c r="N127" s="46"/>
+      <c r="O127" s="46"/>
+      <c r="P127" s="46"/>
+    </row>
+    <row r="128" spans="1:16">
       <c r="B128" s="29" t="s">
         <v>625</v>
       </c>
       <c r="C128" s="29" t="s">
         <v>627</v>
       </c>
-      <c r="H128" s="38" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="129" spans="2:8">
+      <c r="H128" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="I128" s="38">
+        <v>2</v>
+      </c>
+      <c r="J128" s="50" t="s">
+        <v>942</v>
+      </c>
+      <c r="K128" s="50" t="s">
+        <v>934</v>
+      </c>
+      <c r="L128" s="46"/>
+      <c r="M128" s="46"/>
+      <c r="N128" s="46"/>
+      <c r="O128" s="46"/>
+      <c r="P128" s="46"/>
+    </row>
+    <row r="129" spans="2:17">
       <c r="B129" s="29" t="s">
         <v>626</v>
       </c>
       <c r="C129" s="29" t="s">
         <v>628</v>
       </c>
-      <c r="H129" s="38" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="130" spans="2:8">
+      <c r="H129" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="I129" s="38">
+        <v>2</v>
+      </c>
+      <c r="J129" s="50" t="s">
+        <v>943</v>
+      </c>
+      <c r="K129" s="50" t="s">
+        <v>934</v>
+      </c>
+      <c r="L129" s="46"/>
+      <c r="M129" s="46"/>
+      <c r="N129" s="46"/>
+      <c r="O129" s="46"/>
+      <c r="P129" s="46"/>
+    </row>
+    <row r="130" spans="2:17">
       <c r="B130" s="29" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="131" spans="2:8">
+      <c r="J130" s="46"/>
+      <c r="L130" s="46"/>
+      <c r="M130" s="46"/>
+      <c r="N130" s="46"/>
+      <c r="O130" s="46"/>
+      <c r="P130" s="46"/>
+    </row>
+    <row r="131" spans="2:17">
       <c r="B131" s="35" t="s">
         <v>645</v>
       </c>
       <c r="C131" s="35" t="s">
         <v>646</v>
       </c>
-      <c r="H131" s="37" t="s">
+      <c r="H131" s="46" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="132" spans="2:8">
+      <c r="I131" s="37">
+        <v>1</v>
+      </c>
+      <c r="J131" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="L131" s="46"/>
+      <c r="M131" s="46"/>
+      <c r="N131" s="46"/>
+      <c r="O131" s="46"/>
+      <c r="P131" s="46"/>
+    </row>
+    <row r="132" spans="2:17">
       <c r="B132" s="35" t="s">
         <v>402</v>
       </c>
       <c r="C132" s="35" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="133" spans="2:8">
+      <c r="I132" s="29">
+        <v>2</v>
+      </c>
+      <c r="J132" s="50" t="s">
+        <v>944</v>
+      </c>
+      <c r="K132" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="L132" s="46"/>
+      <c r="M132" s="46"/>
+      <c r="N132" s="46"/>
+      <c r="O132" s="46"/>
+      <c r="P132" s="46"/>
+    </row>
+    <row r="133" spans="2:17">
       <c r="B133" s="35" t="s">
         <v>404</v>
       </c>
       <c r="C133" s="29" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="134" spans="2:8">
+        <v>664</v>
+      </c>
+      <c r="I133" s="29">
+        <v>2</v>
+      </c>
+      <c r="J133" s="50" t="s">
+        <v>945</v>
+      </c>
+      <c r="K133" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="L133" s="46"/>
+      <c r="M133" s="46"/>
+      <c r="N133" s="46"/>
+      <c r="O133" s="46"/>
+      <c r="P133" s="46"/>
+    </row>
+    <row r="134" spans="2:17">
       <c r="B134" s="35" t="s">
         <v>405</v>
       </c>
       <c r="C134" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="H134" s="37" t="s">
+      <c r="H134" s="46" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="135" spans="2:8">
+      <c r="I134" s="37">
+        <v>8</v>
+      </c>
+      <c r="J134" s="50" t="s">
+        <v>946</v>
+      </c>
+      <c r="K134" s="50" t="s">
+        <v>947</v>
+      </c>
+      <c r="L134" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="M134" s="50" t="s">
+        <v>948</v>
+      </c>
+      <c r="N134" s="50" t="s">
+        <v>949</v>
+      </c>
+      <c r="O134" s="50" t="s">
+        <v>950</v>
+      </c>
+      <c r="P134" s="50" t="s">
+        <v>951</v>
+      </c>
+      <c r="Q134" s="49" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="135" spans="2:17">
       <c r="B135" s="35" t="s">
         <v>420</v>
       </c>
@@ -8745,38 +9923,88 @@
       <c r="G135" s="29">
         <v>4</v>
       </c>
-      <c r="H135" s="38" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="136" spans="2:8">
+      <c r="H135" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="I135" s="38">
+        <v>1</v>
+      </c>
+      <c r="J135" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="L135" s="46"/>
+      <c r="M135" s="46"/>
+      <c r="N135" s="46"/>
+      <c r="O135" s="46"/>
+      <c r="P135" s="46"/>
+    </row>
+    <row r="136" spans="2:17">
       <c r="B136" s="29" t="s">
         <v>648</v>
       </c>
-      <c r="H136" s="38" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="137" spans="2:8">
+      <c r="H136" s="47" t="s">
+        <v>666</v>
+      </c>
+      <c r="I136" s="38">
+        <v>1</v>
+      </c>
+      <c r="J136" s="50" t="s">
+        <v>953</v>
+      </c>
+      <c r="L136" s="46"/>
+      <c r="M136" s="46"/>
+      <c r="N136" s="46"/>
+      <c r="O136" s="46"/>
+      <c r="P136" s="46"/>
+    </row>
+    <row r="137" spans="2:17">
       <c r="B137" s="35" t="s">
         <v>443</v>
       </c>
       <c r="C137" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="H137" s="38" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="138" spans="2:8">
+      <c r="H137" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="I137" s="38">
+        <v>2</v>
+      </c>
+      <c r="J137" s="50" t="s">
+        <v>954</v>
+      </c>
+      <c r="K137" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="L137" s="46"/>
+      <c r="M137" s="46"/>
+      <c r="N137" s="46"/>
+      <c r="O137" s="46"/>
+      <c r="P137" s="46"/>
+    </row>
+    <row r="138" spans="2:17">
       <c r="B138" s="38" t="s">
         <v>471</v>
       </c>
       <c r="C138" s="38" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="139" spans="2:8">
+      <c r="I138" s="29">
+        <v>2</v>
+      </c>
+      <c r="J138" s="50" t="s">
+        <v>899</v>
+      </c>
+      <c r="K138" s="50" t="s">
+        <v>911</v>
+      </c>
+      <c r="L138" s="46"/>
+      <c r="M138" s="46"/>
+      <c r="N138" s="46"/>
+      <c r="O138" s="46"/>
+      <c r="P138" s="46"/>
+    </row>
+    <row r="139" spans="2:17">
       <c r="B139" s="38" t="s">
         <v>481</v>
       </c>
@@ -8795,118 +10023,1037 @@
       <c r="G139" s="29">
         <v>18</v>
       </c>
-      <c r="H139" s="38" t="s">
+      <c r="H139" s="47" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="140" spans="2:8">
+      <c r="I139" s="38">
+        <v>4</v>
+      </c>
+      <c r="J139" s="50" t="s">
+        <v>955</v>
+      </c>
+      <c r="K139" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="L139" s="50" t="s">
+        <v>911</v>
+      </c>
+      <c r="M139" s="50" t="s">
+        <v>956</v>
+      </c>
+      <c r="N139" s="46"/>
+      <c r="O139" s="46"/>
+      <c r="P139" s="46"/>
+    </row>
+    <row r="140" spans="2:17">
       <c r="B140" s="38" t="s">
         <v>506</v>
       </c>
       <c r="C140" s="37" t="s">
         <v>514</v>
       </c>
-      <c r="H140" s="38" t="s">
-        <v>670</v>
-      </c>
+      <c r="H140" s="47" t="s">
+        <v>666</v>
+      </c>
+      <c r="I140" s="38">
+        <v>1</v>
+      </c>
+      <c r="J140" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="L140" s="46"/>
+      <c r="M140" s="46"/>
+      <c r="N140" s="46"/>
+      <c r="O140" s="46"/>
+      <c r="P140" s="46"/>
+    </row>
+    <row r="141" spans="2:17">
+      <c r="J141" s="46"/>
+      <c r="L141" s="46"/>
+      <c r="M141" s="46"/>
+      <c r="N141" s="46"/>
+      <c r="O141" s="46"/>
+      <c r="P141" s="46"/>
+    </row>
+    <row r="142" spans="2:17">
+      <c r="J142" s="46"/>
+      <c r="L142" s="46"/>
+      <c r="M142" s="46"/>
+      <c r="N142" s="46"/>
+      <c r="O142" s="46"/>
+      <c r="P142" s="46"/>
+    </row>
+    <row r="143" spans="2:17">
+      <c r="J143" s="46"/>
+      <c r="L143" s="46"/>
+      <c r="M143" s="46"/>
+      <c r="N143" s="46"/>
+      <c r="O143" s="46"/>
+      <c r="P143" s="46"/>
+    </row>
+    <row r="144" spans="2:17">
+      <c r="J144" s="46"/>
+      <c r="L144" s="46"/>
+      <c r="M144" s="46"/>
+      <c r="N144" s="46"/>
+      <c r="O144" s="46"/>
+      <c r="P144" s="46"/>
+    </row>
+    <row r="145" spans="10:16">
+      <c r="J145" s="46"/>
+      <c r="L145" s="46"/>
+      <c r="M145" s="46"/>
+      <c r="N145" s="46"/>
+      <c r="O145" s="46"/>
+      <c r="P145" s="46"/>
+    </row>
+    <row r="146" spans="10:16">
+      <c r="J146" s="46"/>
+      <c r="L146" s="46"/>
+      <c r="M146" s="46"/>
+      <c r="N146" s="46"/>
+      <c r="O146" s="46"/>
+      <c r="P146" s="46"/>
+    </row>
+    <row r="147" spans="10:16">
+      <c r="J147" s="46"/>
+      <c r="L147" s="46"/>
+      <c r="M147" s="46"/>
+      <c r="N147" s="46"/>
+      <c r="O147" s="46"/>
+      <c r="P147" s="46"/>
+    </row>
+    <row r="148" spans="10:16">
+      <c r="J148" s="46"/>
+      <c r="L148" s="46"/>
+      <c r="M148" s="46"/>
+      <c r="N148" s="46"/>
+      <c r="O148" s="46"/>
+      <c r="P148" s="46"/>
+    </row>
+    <row r="149" spans="10:16">
+      <c r="J149" s="46"/>
+      <c r="L149" s="46"/>
+      <c r="M149" s="46"/>
+      <c r="N149" s="46"/>
+      <c r="O149" s="46"/>
+      <c r="P149" s="46"/>
+    </row>
+    <row r="150" spans="10:16">
+      <c r="J150" s="46"/>
+      <c r="L150" s="46"/>
+      <c r="M150" s="46"/>
+      <c r="N150" s="46"/>
+      <c r="O150" s="46"/>
+      <c r="P150" s="46"/>
+    </row>
+    <row r="151" spans="10:16">
+      <c r="J151" s="46"/>
+      <c r="L151" s="46"/>
+      <c r="M151" s="46"/>
+      <c r="N151" s="46"/>
+      <c r="O151" s="46"/>
+      <c r="P151" s="46"/>
+    </row>
+    <row r="152" spans="10:16">
+      <c r="J152" s="46"/>
+      <c r="L152" s="46"/>
+      <c r="M152" s="46"/>
+      <c r="N152" s="46"/>
+      <c r="O152" s="46"/>
+      <c r="P152" s="46"/>
+    </row>
+    <row r="153" spans="10:16">
+      <c r="J153" s="46"/>
+      <c r="L153" s="46"/>
+      <c r="M153" s="46"/>
+      <c r="N153" s="46"/>
+      <c r="O153" s="46"/>
+      <c r="P153" s="46"/>
+    </row>
+    <row r="154" spans="10:16">
+      <c r="J154" s="46"/>
+      <c r="L154" s="46"/>
+      <c r="M154" s="46"/>
+      <c r="N154" s="46"/>
+      <c r="O154" s="46"/>
+      <c r="P154" s="46"/>
+    </row>
+    <row r="155" spans="10:16">
+      <c r="J155" s="46"/>
+      <c r="L155" s="46"/>
+      <c r="M155" s="46"/>
+      <c r="N155" s="46"/>
+      <c r="O155" s="46"/>
+      <c r="P155" s="46"/>
+    </row>
+    <row r="156" spans="10:16">
+      <c r="J156" s="46"/>
+      <c r="L156" s="46"/>
+      <c r="M156" s="46"/>
+      <c r="N156" s="46"/>
+      <c r="O156" s="46"/>
+      <c r="P156" s="46"/>
+    </row>
+    <row r="157" spans="10:16">
+      <c r="J157" s="46"/>
+      <c r="L157" s="46"/>
+      <c r="M157" s="46"/>
+      <c r="N157" s="46"/>
+      <c r="O157" s="46"/>
+      <c r="P157" s="46"/>
+    </row>
+    <row r="158" spans="10:16">
+      <c r="J158" s="46"/>
+      <c r="L158" s="46"/>
+      <c r="M158" s="46"/>
+      <c r="N158" s="46"/>
+      <c r="O158" s="46"/>
+      <c r="P158" s="46"/>
+    </row>
+    <row r="159" spans="10:16">
+      <c r="J159" s="46"/>
+      <c r="L159" s="46"/>
+      <c r="M159" s="46"/>
+      <c r="N159" s="46"/>
+      <c r="O159" s="46"/>
+      <c r="P159" s="46"/>
+    </row>
+    <row r="160" spans="10:16">
+      <c r="J160" s="46"/>
+      <c r="L160" s="46"/>
+      <c r="M160" s="46"/>
+      <c r="N160" s="46"/>
+      <c r="O160" s="46"/>
+      <c r="P160" s="46"/>
+    </row>
+    <row r="161" spans="10:16">
+      <c r="J161" s="46"/>
+      <c r="L161" s="46"/>
+      <c r="M161" s="46"/>
+      <c r="N161" s="46"/>
+      <c r="O161" s="46"/>
+      <c r="P161" s="46"/>
+    </row>
+    <row r="162" spans="10:16">
+      <c r="J162" s="46"/>
+      <c r="L162" s="46"/>
+      <c r="M162" s="46"/>
+      <c r="N162" s="46"/>
+      <c r="O162" s="46"/>
+      <c r="P162" s="46"/>
+    </row>
+    <row r="163" spans="10:16">
+      <c r="J163" s="46"/>
+      <c r="L163" s="46"/>
+      <c r="M163" s="46"/>
+      <c r="N163" s="46"/>
+      <c r="O163" s="46"/>
+      <c r="P163" s="46"/>
+    </row>
+    <row r="164" spans="10:16">
+      <c r="J164" s="46"/>
+      <c r="L164" s="46"/>
+      <c r="M164" s="46"/>
+      <c r="N164" s="46"/>
+      <c r="O164" s="46"/>
+      <c r="P164" s="46"/>
+    </row>
+    <row r="165" spans="10:16">
+      <c r="J165" s="46"/>
+      <c r="L165" s="46"/>
+      <c r="M165" s="46"/>
+      <c r="N165" s="46"/>
+      <c r="O165" s="46"/>
+      <c r="P165" s="46"/>
+    </row>
+    <row r="166" spans="10:16">
+      <c r="J166" s="46"/>
+      <c r="L166" s="46"/>
+      <c r="M166" s="46"/>
+      <c r="N166" s="46"/>
+      <c r="O166" s="46"/>
+      <c r="P166" s="46"/>
+    </row>
+    <row r="167" spans="10:16">
+      <c r="J167" s="46"/>
+      <c r="L167" s="46"/>
+      <c r="M167" s="46"/>
+      <c r="N167" s="46"/>
+      <c r="O167" s="46"/>
+      <c r="P167" s="46"/>
+    </row>
+    <row r="168" spans="10:16">
+      <c r="J168" s="46"/>
+      <c r="L168" s="46"/>
+      <c r="M168" s="46"/>
+      <c r="N168" s="46"/>
+      <c r="O168" s="46"/>
+      <c r="P168" s="46"/>
+    </row>
+    <row r="169" spans="10:16">
+      <c r="J169" s="46"/>
+      <c r="L169" s="46"/>
+      <c r="M169" s="46"/>
+      <c r="N169" s="46"/>
+      <c r="O169" s="46"/>
+      <c r="P169" s="46"/>
+    </row>
+    <row r="170" spans="10:16">
+      <c r="J170" s="46"/>
+      <c r="L170" s="46"/>
+      <c r="M170" s="46"/>
+      <c r="N170" s="46"/>
+      <c r="O170" s="46"/>
+      <c r="P170" s="46"/>
+    </row>
+    <row r="171" spans="10:16">
+      <c r="J171" s="46"/>
+      <c r="L171" s="46"/>
+      <c r="M171" s="46"/>
+      <c r="N171" s="46"/>
+      <c r="O171" s="46"/>
+      <c r="P171" s="46"/>
+    </row>
+    <row r="172" spans="10:16">
+      <c r="J172" s="46"/>
+      <c r="L172" s="46"/>
+      <c r="M172" s="46"/>
+      <c r="N172" s="46"/>
+      <c r="O172" s="46"/>
+      <c r="P172" s="46"/>
+    </row>
+    <row r="173" spans="10:16">
+      <c r="J173" s="46"/>
+      <c r="L173" s="46"/>
+      <c r="M173" s="46"/>
+      <c r="N173" s="46"/>
+      <c r="O173" s="46"/>
+      <c r="P173" s="46"/>
+    </row>
+    <row r="174" spans="10:16">
+      <c r="J174" s="46"/>
+      <c r="L174" s="46"/>
+      <c r="M174" s="46"/>
+      <c r="N174" s="46"/>
+      <c r="O174" s="46"/>
+      <c r="P174" s="46"/>
+    </row>
+    <row r="175" spans="10:16">
+      <c r="J175" s="46"/>
+      <c r="L175" s="46"/>
+      <c r="M175" s="46"/>
+      <c r="N175" s="46"/>
+      <c r="O175" s="46"/>
+      <c r="P175" s="46"/>
+    </row>
+    <row r="176" spans="10:16">
+      <c r="J176" s="46"/>
+      <c r="L176" s="46"/>
+      <c r="M176" s="46"/>
+      <c r="N176" s="46"/>
+      <c r="O176" s="46"/>
+      <c r="P176" s="46"/>
+    </row>
+    <row r="177" spans="10:16">
+      <c r="J177" s="46"/>
+      <c r="L177" s="46"/>
+      <c r="M177" s="46"/>
+      <c r="N177" s="46"/>
+      <c r="O177" s="46"/>
+      <c r="P177" s="46"/>
+    </row>
+    <row r="178" spans="10:16">
+      <c r="J178" s="46"/>
+      <c r="L178" s="46"/>
+      <c r="M178" s="46"/>
+      <c r="N178" s="46"/>
+      <c r="O178" s="46"/>
+      <c r="P178" s="46"/>
+    </row>
+    <row r="179" spans="10:16">
+      <c r="J179" s="46"/>
+      <c r="L179" s="46"/>
+      <c r="M179" s="46"/>
+      <c r="N179" s="46"/>
+      <c r="O179" s="46"/>
+      <c r="P179" s="46"/>
+    </row>
+    <row r="180" spans="10:16">
+      <c r="J180" s="46"/>
+      <c r="L180" s="46"/>
+      <c r="M180" s="46"/>
+      <c r="N180" s="46"/>
+      <c r="O180" s="46"/>
+      <c r="P180" s="46"/>
+    </row>
+    <row r="181" spans="10:16">
+      <c r="J181" s="46"/>
+      <c r="L181" s="46"/>
+      <c r="M181" s="46"/>
+      <c r="N181" s="46"/>
+      <c r="O181" s="46"/>
+      <c r="P181" s="46"/>
+    </row>
+    <row r="182" spans="10:16">
+      <c r="J182" s="46"/>
+      <c r="L182" s="46"/>
+      <c r="M182" s="46"/>
+      <c r="N182" s="46"/>
+      <c r="O182" s="46"/>
+      <c r="P182" s="46"/>
+    </row>
+    <row r="183" spans="10:16">
+      <c r="J183" s="46"/>
+      <c r="L183" s="46"/>
+      <c r="M183" s="46"/>
+      <c r="N183" s="46"/>
+      <c r="O183" s="46"/>
+      <c r="P183" s="46"/>
+    </row>
+    <row r="184" spans="10:16">
+      <c r="J184" s="46"/>
+      <c r="L184" s="46"/>
+      <c r="M184" s="46"/>
+      <c r="N184" s="46"/>
+      <c r="O184" s="46"/>
+      <c r="P184" s="46"/>
+    </row>
+    <row r="185" spans="10:16">
+      <c r="J185" s="46"/>
+      <c r="L185" s="46"/>
+      <c r="M185" s="46"/>
+      <c r="N185" s="46"/>
+      <c r="O185" s="46"/>
+      <c r="P185" s="46"/>
+    </row>
+    <row r="186" spans="10:16">
+      <c r="J186" s="46"/>
+      <c r="L186" s="46"/>
+      <c r="M186" s="46"/>
+      <c r="N186" s="46"/>
+      <c r="O186" s="46"/>
+      <c r="P186" s="46"/>
+    </row>
+    <row r="187" spans="10:16">
+      <c r="J187" s="46"/>
+      <c r="L187" s="46"/>
+      <c r="M187" s="46"/>
+      <c r="N187" s="46"/>
+      <c r="O187" s="46"/>
+      <c r="P187" s="46"/>
+    </row>
+    <row r="188" spans="10:16">
+      <c r="J188" s="46"/>
+      <c r="L188" s="46"/>
+      <c r="M188" s="46"/>
+      <c r="N188" s="46"/>
+      <c r="O188" s="46"/>
+      <c r="P188" s="46"/>
+    </row>
+    <row r="189" spans="10:16">
+      <c r="J189" s="46"/>
+      <c r="L189" s="46"/>
+      <c r="M189" s="46"/>
+      <c r="N189" s="46"/>
+      <c r="O189" s="46"/>
+      <c r="P189" s="46"/>
+    </row>
+    <row r="190" spans="10:16">
+      <c r="J190" s="46"/>
+      <c r="L190" s="46"/>
+      <c r="M190" s="46"/>
+      <c r="N190" s="46"/>
+      <c r="O190" s="46"/>
+      <c r="P190" s="46"/>
+    </row>
+    <row r="191" spans="10:16">
+      <c r="J191" s="46"/>
+      <c r="L191" s="46"/>
+      <c r="M191" s="46"/>
+      <c r="N191" s="46"/>
+      <c r="O191" s="46"/>
+      <c r="P191" s="46"/>
+    </row>
+    <row r="192" spans="10:16">
+      <c r="J192" s="46"/>
+      <c r="L192" s="46"/>
+      <c r="M192" s="46"/>
+      <c r="N192" s="46"/>
+      <c r="O192" s="46"/>
+      <c r="P192" s="46"/>
+    </row>
+    <row r="193" spans="10:16">
+      <c r="J193" s="46"/>
+      <c r="L193" s="46"/>
+      <c r="M193" s="46"/>
+      <c r="N193" s="46"/>
+      <c r="O193" s="46"/>
+      <c r="P193" s="46"/>
+    </row>
+    <row r="194" spans="10:16">
+      <c r="J194" s="46"/>
+      <c r="L194" s="46"/>
+      <c r="M194" s="46"/>
+      <c r="N194" s="46"/>
+      <c r="O194" s="46"/>
+      <c r="P194" s="46"/>
+    </row>
+    <row r="195" spans="10:16">
+      <c r="J195" s="46"/>
+      <c r="L195" s="46"/>
+      <c r="M195" s="46"/>
+      <c r="N195" s="46"/>
+      <c r="O195" s="46"/>
+      <c r="P195" s="46"/>
+    </row>
+    <row r="196" spans="10:16">
+      <c r="J196" s="46"/>
+      <c r="L196" s="46"/>
+      <c r="M196" s="46"/>
+      <c r="N196" s="46"/>
+      <c r="O196" s="46"/>
+      <c r="P196" s="46"/>
+    </row>
+    <row r="197" spans="10:16">
+      <c r="J197" s="46"/>
+      <c r="L197" s="46"/>
+      <c r="M197" s="46"/>
+      <c r="N197" s="46"/>
+      <c r="O197" s="46"/>
+      <c r="P197" s="46"/>
+    </row>
+    <row r="198" spans="10:16">
+      <c r="J198" s="46"/>
+      <c r="L198" s="46"/>
+      <c r="M198" s="46"/>
+      <c r="N198" s="46"/>
+      <c r="O198" s="46"/>
+      <c r="P198" s="46"/>
+    </row>
+    <row r="199" spans="10:16">
+      <c r="J199" s="46"/>
+      <c r="L199" s="46"/>
+      <c r="M199" s="46"/>
+      <c r="N199" s="46"/>
+      <c r="O199" s="46"/>
+      <c r="P199" s="46"/>
+    </row>
+    <row r="200" spans="10:16">
+      <c r="J200" s="46"/>
+      <c r="L200" s="46"/>
+      <c r="M200" s="46"/>
+      <c r="N200" s="46"/>
+      <c r="O200" s="46"/>
+      <c r="P200" s="46"/>
+    </row>
+    <row r="201" spans="10:16">
+      <c r="J201" s="46"/>
+      <c r="L201" s="46"/>
+      <c r="M201" s="46"/>
+      <c r="N201" s="46"/>
+      <c r="O201" s="46"/>
+      <c r="P201" s="46"/>
+    </row>
+    <row r="202" spans="10:16">
+      <c r="J202" s="46"/>
+      <c r="L202" s="46"/>
+      <c r="M202" s="46"/>
+      <c r="N202" s="46"/>
+      <c r="O202" s="46"/>
+      <c r="P202" s="46"/>
+    </row>
+    <row r="203" spans="10:16">
+      <c r="J203" s="46"/>
+      <c r="L203" s="46"/>
+      <c r="M203" s="46"/>
+      <c r="N203" s="46"/>
+      <c r="O203" s="46"/>
+      <c r="P203" s="46"/>
+    </row>
+    <row r="204" spans="10:16">
+      <c r="J204" s="46"/>
+      <c r="L204" s="46"/>
+      <c r="M204" s="46"/>
+      <c r="N204" s="46"/>
+      <c r="O204" s="46"/>
+      <c r="P204" s="46"/>
+    </row>
+    <row r="205" spans="10:16">
+      <c r="J205" s="46"/>
+      <c r="L205" s="46"/>
+      <c r="M205" s="46"/>
+      <c r="N205" s="46"/>
+      <c r="O205" s="46"/>
+      <c r="P205" s="46"/>
+    </row>
+    <row r="206" spans="10:16">
+      <c r="J206" s="46"/>
+      <c r="L206" s="46"/>
+      <c r="M206" s="46"/>
+      <c r="N206" s="46"/>
+      <c r="O206" s="46"/>
+      <c r="P206" s="46"/>
+    </row>
+    <row r="207" spans="10:16">
+      <c r="J207" s="46"/>
+      <c r="L207" s="46"/>
+      <c r="M207" s="46"/>
+      <c r="N207" s="46"/>
+      <c r="O207" s="46"/>
+      <c r="P207" s="46"/>
+    </row>
+    <row r="208" spans="10:16">
+      <c r="J208" s="46"/>
+      <c r="L208" s="46"/>
+      <c r="M208" s="46"/>
+      <c r="N208" s="46"/>
+      <c r="O208" s="46"/>
+      <c r="P208" s="46"/>
+    </row>
+    <row r="209" spans="10:16">
+      <c r="J209" s="46"/>
+      <c r="L209" s="46"/>
+      <c r="M209" s="46"/>
+      <c r="N209" s="46"/>
+      <c r="O209" s="46"/>
+      <c r="P209" s="46"/>
+    </row>
+    <row r="210" spans="10:16">
+      <c r="J210" s="46"/>
+      <c r="L210" s="46"/>
+      <c r="M210" s="46"/>
+      <c r="N210" s="46"/>
+      <c r="O210" s="46"/>
+      <c r="P210" s="46"/>
+    </row>
+    <row r="211" spans="10:16">
+      <c r="J211" s="46"/>
+      <c r="L211" s="46"/>
+      <c r="M211" s="46"/>
+      <c r="N211" s="46"/>
+      <c r="O211" s="46"/>
+      <c r="P211" s="46"/>
+    </row>
+    <row r="212" spans="10:16">
+      <c r="J212" s="46"/>
+      <c r="L212" s="46"/>
+      <c r="M212" s="46"/>
+      <c r="N212" s="46"/>
+      <c r="O212" s="46"/>
+      <c r="P212" s="46"/>
+    </row>
+    <row r="213" spans="10:16">
+      <c r="J213" s="46"/>
+      <c r="L213" s="46"/>
+      <c r="M213" s="46"/>
+      <c r="N213" s="46"/>
+      <c r="O213" s="46"/>
+      <c r="P213" s="46"/>
+    </row>
+    <row r="214" spans="10:16">
+      <c r="J214" s="46"/>
+      <c r="L214" s="46"/>
+      <c r="M214" s="46"/>
+      <c r="N214" s="46"/>
+      <c r="O214" s="46"/>
+      <c r="P214" s="46"/>
+    </row>
+    <row r="215" spans="10:16">
+      <c r="J215" s="46"/>
+      <c r="L215" s="46"/>
+      <c r="M215" s="46"/>
+      <c r="N215" s="46"/>
+      <c r="O215" s="46"/>
+      <c r="P215" s="46"/>
+    </row>
+    <row r="216" spans="10:16">
+      <c r="J216" s="46"/>
+      <c r="L216" s="46"/>
+      <c r="M216" s="46"/>
+      <c r="N216" s="46"/>
+      <c r="O216" s="46"/>
+      <c r="P216" s="46"/>
+    </row>
+    <row r="217" spans="10:16">
+      <c r="J217" s="46"/>
+      <c r="L217" s="46"/>
+      <c r="M217" s="46"/>
+      <c r="N217" s="46"/>
+      <c r="O217" s="46"/>
+      <c r="P217" s="46"/>
+    </row>
+    <row r="218" spans="10:16">
+      <c r="J218" s="46"/>
+      <c r="L218" s="46"/>
+      <c r="M218" s="46"/>
+      <c r="N218" s="46"/>
+      <c r="O218" s="46"/>
+      <c r="P218" s="46"/>
+    </row>
+    <row r="219" spans="10:16">
+      <c r="J219" s="46"/>
+      <c r="L219" s="46"/>
+      <c r="M219" s="46"/>
+      <c r="N219" s="46"/>
+      <c r="O219" s="46"/>
+      <c r="P219" s="46"/>
+    </row>
+    <row r="220" spans="10:16">
+      <c r="J220" s="46"/>
+      <c r="L220" s="46"/>
+      <c r="M220" s="46"/>
+      <c r="N220" s="46"/>
+      <c r="O220" s="46"/>
+      <c r="P220" s="46"/>
+    </row>
+    <row r="221" spans="10:16">
+      <c r="J221" s="46"/>
+      <c r="L221" s="46"/>
+      <c r="M221" s="46"/>
+      <c r="N221" s="46"/>
+      <c r="O221" s="46"/>
+      <c r="P221" s="46"/>
+    </row>
+    <row r="222" spans="10:16">
+      <c r="J222" s="46"/>
+      <c r="L222" s="46"/>
+      <c r="M222" s="46"/>
+      <c r="N222" s="46"/>
+      <c r="O222" s="46"/>
+      <c r="P222" s="46"/>
+    </row>
+    <row r="223" spans="10:16">
+      <c r="J223" s="46"/>
+      <c r="L223" s="46"/>
+      <c r="M223" s="46"/>
+      <c r="N223" s="46"/>
+      <c r="O223" s="46"/>
+      <c r="P223" s="46"/>
+    </row>
+    <row r="224" spans="10:16">
+      <c r="J224" s="46"/>
+      <c r="L224" s="46"/>
+      <c r="M224" s="46"/>
+      <c r="N224" s="46"/>
+      <c r="O224" s="46"/>
+      <c r="P224" s="46"/>
+    </row>
+    <row r="225" spans="10:16">
+      <c r="J225" s="46"/>
+      <c r="L225" s="46"/>
+      <c r="M225" s="46"/>
+      <c r="N225" s="46"/>
+      <c r="O225" s="46"/>
+      <c r="P225" s="46"/>
+    </row>
+    <row r="226" spans="10:16">
+      <c r="J226" s="46"/>
+      <c r="L226" s="46"/>
+      <c r="M226" s="46"/>
+      <c r="N226" s="46"/>
+      <c r="O226" s="46"/>
+      <c r="P226" s="46"/>
+    </row>
+    <row r="227" spans="10:16">
+      <c r="J227" s="46"/>
+      <c r="L227" s="46"/>
+      <c r="M227" s="46"/>
+      <c r="N227" s="46"/>
+      <c r="O227" s="46"/>
+      <c r="P227" s="46"/>
+    </row>
+    <row r="228" spans="10:16">
+      <c r="J228" s="46"/>
+      <c r="L228" s="46"/>
+      <c r="M228" s="46"/>
+      <c r="N228" s="46"/>
+      <c r="O228" s="46"/>
+      <c r="P228" s="46"/>
+    </row>
+    <row r="229" spans="10:16">
+      <c r="J229" s="46"/>
+      <c r="L229" s="46"/>
+      <c r="M229" s="46"/>
+      <c r="N229" s="46"/>
+      <c r="O229" s="46"/>
+      <c r="P229" s="46"/>
+    </row>
+    <row r="230" spans="10:16">
+      <c r="J230" s="46"/>
+      <c r="L230" s="46"/>
+      <c r="M230" s="46"/>
+      <c r="N230" s="46"/>
+      <c r="O230" s="46"/>
+      <c r="P230" s="46"/>
+    </row>
+    <row r="231" spans="10:16">
+      <c r="J231" s="46"/>
+      <c r="L231" s="46"/>
+      <c r="M231" s="46"/>
+      <c r="N231" s="46"/>
+      <c r="O231" s="46"/>
+      <c r="P231" s="46"/>
+    </row>
+    <row r="232" spans="10:16">
+      <c r="J232" s="46"/>
+      <c r="L232" s="46"/>
+      <c r="M232" s="46"/>
+      <c r="N232" s="46"/>
+      <c r="O232" s="46"/>
+      <c r="P232" s="46"/>
+    </row>
+    <row r="233" spans="10:16">
+      <c r="J233" s="46"/>
+      <c r="L233" s="46"/>
+      <c r="M233" s="46"/>
+      <c r="N233" s="46"/>
+      <c r="O233" s="46"/>
+      <c r="P233" s="46"/>
+    </row>
+    <row r="234" spans="10:16">
+      <c r="J234" s="46"/>
+      <c r="L234" s="46"/>
+      <c r="M234" s="46"/>
+      <c r="N234" s="46"/>
+      <c r="O234" s="46"/>
+      <c r="P234" s="46"/>
+    </row>
+    <row r="235" spans="10:16">
+      <c r="J235" s="46"/>
+      <c r="L235" s="46"/>
+      <c r="M235" s="46"/>
+      <c r="N235" s="46"/>
+      <c r="O235" s="46"/>
+      <c r="P235" s="46"/>
+    </row>
+    <row r="236" spans="10:16">
+      <c r="J236" s="46"/>
+      <c r="L236" s="46"/>
+      <c r="M236" s="46"/>
+      <c r="N236" s="46"/>
+      <c r="O236" s="46"/>
+      <c r="P236" s="46"/>
+    </row>
+    <row r="237" spans="10:16">
+      <c r="J237" s="46"/>
+      <c r="L237" s="46"/>
+      <c r="M237" s="46"/>
+      <c r="N237" s="46"/>
+      <c r="O237" s="46"/>
+      <c r="P237" s="46"/>
+    </row>
+    <row r="238" spans="10:16">
+      <c r="J238" s="46"/>
+      <c r="L238" s="46"/>
+      <c r="M238" s="46"/>
+      <c r="N238" s="46"/>
+      <c r="O238" s="46"/>
+      <c r="P238" s="46"/>
+    </row>
+    <row r="239" spans="10:16">
+      <c r="J239" s="46"/>
+      <c r="L239" s="46"/>
+      <c r="M239" s="46"/>
+      <c r="N239" s="46"/>
+      <c r="O239" s="46"/>
+      <c r="P239" s="46"/>
+    </row>
+    <row r="240" spans="10:16">
+      <c r="J240" s="46"/>
+      <c r="L240" s="46"/>
+      <c r="M240" s="46"/>
+      <c r="N240" s="46"/>
+      <c r="O240" s="46"/>
+      <c r="P240" s="46"/>
+    </row>
+    <row r="241" spans="10:16">
+      <c r="J241" s="46"/>
+      <c r="L241" s="46"/>
+      <c r="M241" s="46"/>
+      <c r="N241" s="46"/>
+      <c r="O241" s="46"/>
+      <c r="P241" s="46"/>
+    </row>
+    <row r="242" spans="10:16">
+      <c r="J242" s="46"/>
+      <c r="L242" s="46"/>
+      <c r="M242" s="46"/>
+      <c r="N242" s="46"/>
+      <c r="O242" s="46"/>
+      <c r="P242" s="46"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" display="https://github.com/romariohornburg"/>
-    <hyperlink ref="K3" r:id="rId2" display="https://github.com/Varunram"/>
-    <hyperlink ref="J3" r:id="rId3" display="https://github.com/hsluoyz"/>
-    <hyperlink ref="I7" r:id="rId4" display="https://github.com/jediminer543"/>
-    <hyperlink ref="I8" r:id="rId5" display="https://github.com/Hobo2k"/>
-    <hyperlink ref="I9" r:id="rId6" display="https://github.com/ettavolt"/>
-    <hyperlink ref="J9" r:id="rId7" display="https://github.com/hsluoyz"/>
-    <hyperlink ref="I10" r:id="rId8" display="https://github.com/sindy39"/>
-    <hyperlink ref="J10" r:id="rId9" display="https://github.com/hsluoyz"/>
-    <hyperlink ref="I11" r:id="rId10" display="https://github.com/yyjdelete"/>
-    <hyperlink ref="J11" r:id="rId11" display="https://github.com/hsluoyz"/>
-    <hyperlink ref="K11" r:id="rId12" display="https://github.com/chmorgan"/>
-    <hyperlink ref="I12" r:id="rId13" display="https://github.com/crysehillmes"/>
-    <hyperlink ref="J12" r:id="rId14" display="https://github.com/hsluoyz"/>
-    <hyperlink ref="I13" r:id="rId15" display="https://github.com/markpizz"/>
-    <hyperlink ref="J13" r:id="rId16" display="https://github.com/hsluoyz"/>
-    <hyperlink ref="I14" r:id="rId17" display="https://github.com/dmiller-nmap"/>
-    <hyperlink ref="I15" r:id="rId18" display="https://github.com/dmiller-nmap"/>
-    <hyperlink ref="I16" r:id="rId19" display="https://github.com/dmiller-nmap"/>
-    <hyperlink ref="J16" r:id="rId20" display="https://github.com/palashahuja"/>
-    <hyperlink ref="I22" r:id="rId21" display="https://github.com/dmiller-nmap"/>
-    <hyperlink ref="I23" r:id="rId22" display="https://github.com/timhughes"/>
-    <hyperlink ref="J23" r:id="rId23" display="https://github.com/dmiller-nmap"/>
-    <hyperlink ref="I24" r:id="rId24" display="https://github.com/bonsaiviking"/>
-    <hyperlink ref="J24" r:id="rId25" display="https://github.com/rjk"/>
-    <hyperlink ref="K24" r:id="rId26" display="https://github.com/dmiller-nmap"/>
-    <hyperlink ref="M24" r:id="rId27" display="https://github.com/regexaurus"/>
-    <hyperlink ref="L24" r:id="rId28" display="https://github.com/majek"/>
-    <hyperlink ref="I25" r:id="rId29" display="https://github.com/gvanem"/>
-    <hyperlink ref="J25" r:id="rId30" display="https://github.com/dmiller-nmap"/>
-    <hyperlink ref="I26" r:id="rId31" display="https://github.com/dmiller-nmap"/>
-    <hyperlink ref="J26" r:id="rId32" display="https://github.com/devnexen"/>
-    <hyperlink ref="K26" r:id="rId33" display="https://github.com/gvanem"/>
-    <hyperlink ref="I27" r:id="rId34" display="https://github.com/dmiller-nmap"/>
-    <hyperlink ref="I28" r:id="rId35" display="https://github.com/nnposter"/>
-    <hyperlink ref="J28" r:id="rId36" display="https://github.com/dmiller-nmap"/>
-    <hyperlink ref="I29" r:id="rId37" display="https://github.com/dmiller-nmap"/>
-    <hyperlink ref="I30" r:id="rId38" display="https://github.com/dmiller-nmap"/>
-    <hyperlink ref="J30" r:id="rId39" display="https://github.com/G10h4ck"/>
-    <hyperlink ref="I31" r:id="rId40" display="https://github.com/h4ck3rk3y"/>
-    <hyperlink ref="J31" r:id="rId41" display="https://github.com/dmiller-nmap"/>
-    <hyperlink ref="I32" r:id="rId42" display="https://github.com/dmiller-nmap"/>
-    <hyperlink ref="I41" r:id="rId43" display="https://github.com/markpizz"/>
-    <hyperlink ref="J41" r:id="rId44" display="https://github.com/hsluoyz"/>
-    <hyperlink ref="H53" r:id="rId45" display="https://github.com/Gl0"/>
-    <hyperlink ref="I53" r:id="rId46" display="https://github.com/Gl0"/>
-    <hyperlink ref="J53" r:id="rId47" display="https://github.com/hsluoyz"/>
-    <hyperlink ref="I54" r:id="rId48" display="https://github.com/zdm"/>
-    <hyperlink ref="J54" r:id="rId49" display="https://github.com/hsluoyz"/>
-    <hyperlink ref="K54" r:id="rId50" display="https://github.com/marlop352"/>
-    <hyperlink ref="L54" r:id="rId51" display="https://github.com/mhoes"/>
-    <hyperlink ref="M54" r:id="rId52" display="https://github.com/sanitybit"/>
-    <hyperlink ref="N54" r:id="rId53" display="https://github.com/BavoB"/>
-    <hyperlink ref="O54" r:id="rId54" display="https://github.com/dmiller-nmap"/>
-    <hyperlink ref="I55" r:id="rId55" display="https://github.com/jungle-boogie"/>
-    <hyperlink ref="J55" r:id="rId56" display="https://github.com/dmiller-nmap"/>
-    <hyperlink ref="I56" r:id="rId57" display="https://github.com/Komosa"/>
-    <hyperlink ref="J56" r:id="rId58" display="https://github.com/hsluoyz"/>
-    <hyperlink ref="K56" r:id="rId59" display="https://github.com/fyodor"/>
-    <hyperlink ref="I57" r:id="rId60" display="https://github.com/sindy39"/>
-    <hyperlink ref="J57" r:id="rId61" display="https://github.com/hsluoyz"/>
-    <hyperlink ref="I58" r:id="rId62" display="https://github.com/markpizz"/>
-    <hyperlink ref="J58" r:id="rId63" display="https://github.com/hsluoyz"/>
-    <hyperlink ref="I59" r:id="rId64" display="https://github.com/markpizz"/>
-    <hyperlink ref="J59" r:id="rId65" display="https://github.com/hsluoyz"/>
-    <hyperlink ref="I60" r:id="rId66" display="https://github.com/Varunram"/>
-    <hyperlink ref="J60" r:id="rId67" display="https://github.com/dmiller-nmap"/>
-    <hyperlink ref="I61" r:id="rId68" display="https://github.com/dmiller-nmap"/>
-    <hyperlink ref="J61" r:id="rId69" display="https://github.com/Varunram"/>
-    <hyperlink ref="I62" r:id="rId70" display="https://github.com/beyefendi"/>
-    <hyperlink ref="J62" r:id="rId71" display="https://github.com/dmiller-nmap"/>
-    <hyperlink ref="I63" r:id="rId72" display="https://github.com/dmiller-nmap"/>
-    <hyperlink ref="I64" r:id="rId73" display="https://github.com/nnposter"/>
-    <hyperlink ref="J64" r:id="rId74" display="https://github.com/dmiller-nmap"/>
-    <hyperlink ref="I65" r:id="rId75" display="https://github.com/p-l-"/>
-    <hyperlink ref="J65" r:id="rId76" display="https://github.com/dmiller-nmap"/>
-    <hyperlink ref="K65" r:id="rId77" display="https://github.com/G10h4ck"/>
-    <hyperlink ref="I66" r:id="rId78" display="https://github.com/nnposter"/>
-    <hyperlink ref="J66" r:id="rId79" display="https://github.com/dmiller-nmap"/>
-    <hyperlink ref="I67" r:id="rId80" display="https://github.com/dmiller-nmap"/>
-    <hyperlink ref="I68" r:id="rId81" display="https://github.com/dmiller-nmap"/>
-    <hyperlink ref="I70" r:id="rId82" display="https://github.com/dmiller-nmap"/>
-    <hyperlink ref="I69" r:id="rId83" display="https://github.com/dmiller-nmap"/>
-    <hyperlink ref="I72" r:id="rId84" display="https://github.com/nnposter"/>
-    <hyperlink ref="J72" r:id="rId85" display="https://github.com/dmiller-nmap"/>
-    <hyperlink ref="K72" r:id="rId86" display="https://github.com/bonsaiviking"/>
-    <hyperlink ref="I73" r:id="rId87" display="https://github.com/nnposter"/>
-    <hyperlink ref="J73" r:id="rId88" display="https://github.com/cldrn"/>
-    <hyperlink ref="K73" r:id="rId89" display="https://github.com/bonsaiviking"/>
-    <hyperlink ref="I80" r:id="rId90" display="https://github.com/fyodor"/>
-    <hyperlink ref="J80" r:id="rId91" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J3" r:id="rId1" display="https://github.com/romariohornburg"/>
+    <hyperlink ref="L3" r:id="rId2" display="https://github.com/Varunram"/>
+    <hyperlink ref="K3" r:id="rId3" display="https://github.com/hsluoyz"/>
+    <hyperlink ref="J7" r:id="rId4" display="https://github.com/jediminer543"/>
+    <hyperlink ref="J8" r:id="rId5" display="https://github.com/Hobo2k"/>
+    <hyperlink ref="J9" r:id="rId6" display="https://github.com/ettavolt"/>
+    <hyperlink ref="K9" r:id="rId7" display="https://github.com/hsluoyz"/>
+    <hyperlink ref="J10" r:id="rId8" display="https://github.com/sindy39"/>
+    <hyperlink ref="K10" r:id="rId9" display="https://github.com/hsluoyz"/>
+    <hyperlink ref="J11" r:id="rId10" display="https://github.com/yyjdelete"/>
+    <hyperlink ref="K11" r:id="rId11" display="https://github.com/hsluoyz"/>
+    <hyperlink ref="L11" r:id="rId12" display="https://github.com/chmorgan"/>
+    <hyperlink ref="J12" r:id="rId13" display="https://github.com/crysehillmes"/>
+    <hyperlink ref="K12" r:id="rId14" display="https://github.com/hsluoyz"/>
+    <hyperlink ref="J13" r:id="rId15" display="https://github.com/markpizz"/>
+    <hyperlink ref="K13" r:id="rId16" display="https://github.com/hsluoyz"/>
+    <hyperlink ref="J14" r:id="rId17" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J15" r:id="rId18" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J16" r:id="rId19" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="K16" r:id="rId20" display="https://github.com/palashahuja"/>
+    <hyperlink ref="J22" r:id="rId21" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J23" r:id="rId22" display="https://github.com/timhughes"/>
+    <hyperlink ref="K23" r:id="rId23" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J24" r:id="rId24" display="https://github.com/bonsaiviking"/>
+    <hyperlink ref="K24" r:id="rId25" display="https://github.com/rjk"/>
+    <hyperlink ref="L24" r:id="rId26" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="N24" r:id="rId27" display="https://github.com/regexaurus"/>
+    <hyperlink ref="M24" r:id="rId28" display="https://github.com/majek"/>
+    <hyperlink ref="J25" r:id="rId29" display="https://github.com/gvanem"/>
+    <hyperlink ref="K25" r:id="rId30" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J26" r:id="rId31" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="K26" r:id="rId32" display="https://github.com/devnexen"/>
+    <hyperlink ref="L26" r:id="rId33" display="https://github.com/gvanem"/>
+    <hyperlink ref="J27" r:id="rId34" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J28" r:id="rId35" display="https://github.com/nnposter"/>
+    <hyperlink ref="K28" r:id="rId36" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J29" r:id="rId37" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J30" r:id="rId38" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="K30" r:id="rId39" display="https://github.com/G10h4ck"/>
+    <hyperlink ref="J31" r:id="rId40" display="https://github.com/h4ck3rk3y"/>
+    <hyperlink ref="K31" r:id="rId41" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J32" r:id="rId42" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J41" r:id="rId43" display="https://github.com/markpizz"/>
+    <hyperlink ref="K41" r:id="rId44" display="https://github.com/hsluoyz"/>
+    <hyperlink ref="I53" r:id="rId45" display="https://github.com/Gl0"/>
+    <hyperlink ref="J53" r:id="rId46" display="https://github.com/Gl0"/>
+    <hyperlink ref="K53" r:id="rId47" display="https://github.com/hsluoyz"/>
+    <hyperlink ref="J54" r:id="rId48" display="https://github.com/zdm"/>
+    <hyperlink ref="K54" r:id="rId49" display="https://github.com/hsluoyz"/>
+    <hyperlink ref="L54" r:id="rId50" display="https://github.com/marlop352"/>
+    <hyperlink ref="M54" r:id="rId51" display="https://github.com/mhoes"/>
+    <hyperlink ref="N54" r:id="rId52" display="https://github.com/sanitybit"/>
+    <hyperlink ref="O54" r:id="rId53" display="https://github.com/BavoB"/>
+    <hyperlink ref="P54" r:id="rId54" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J55" r:id="rId55" display="https://github.com/jungle-boogie"/>
+    <hyperlink ref="K55" r:id="rId56" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J56" r:id="rId57" display="https://github.com/Komosa"/>
+    <hyperlink ref="K56" r:id="rId58" display="https://github.com/hsluoyz"/>
+    <hyperlink ref="L56" r:id="rId59" display="https://github.com/fyodor"/>
+    <hyperlink ref="J57" r:id="rId60" display="https://github.com/sindy39"/>
+    <hyperlink ref="K57" r:id="rId61" display="https://github.com/hsluoyz"/>
+    <hyperlink ref="J58" r:id="rId62" display="https://github.com/markpizz"/>
+    <hyperlink ref="K58" r:id="rId63" display="https://github.com/hsluoyz"/>
+    <hyperlink ref="J59" r:id="rId64" display="https://github.com/markpizz"/>
+    <hyperlink ref="K59" r:id="rId65" display="https://github.com/hsluoyz"/>
+    <hyperlink ref="J60" r:id="rId66" display="https://github.com/Varunram"/>
+    <hyperlink ref="K60" r:id="rId67" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J61" r:id="rId68" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="K61" r:id="rId69" display="https://github.com/Varunram"/>
+    <hyperlink ref="J62" r:id="rId70" display="https://github.com/beyefendi"/>
+    <hyperlink ref="K62" r:id="rId71" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J63" r:id="rId72" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J64" r:id="rId73" display="https://github.com/nnposter"/>
+    <hyperlink ref="K64" r:id="rId74" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J65" r:id="rId75" display="https://github.com/p-l-"/>
+    <hyperlink ref="K65" r:id="rId76" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="L65" r:id="rId77" display="https://github.com/G10h4ck"/>
+    <hyperlink ref="J66" r:id="rId78" display="https://github.com/nnposter"/>
+    <hyperlink ref="K66" r:id="rId79" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J67" r:id="rId80" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J68" r:id="rId81" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J70" r:id="rId82" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J69" r:id="rId83" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J72" r:id="rId84" display="https://github.com/nnposter"/>
+    <hyperlink ref="K72" r:id="rId85" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="L72" r:id="rId86" display="https://github.com/bonsaiviking"/>
+    <hyperlink ref="J73" r:id="rId87" display="https://github.com/nnposter"/>
+    <hyperlink ref="K73" r:id="rId88" display="https://github.com/cldrn"/>
+    <hyperlink ref="L73" r:id="rId89" display="https://github.com/bonsaiviking"/>
+    <hyperlink ref="J80" r:id="rId90" display="https://github.com/fyodor"/>
+    <hyperlink ref="K80" r:id="rId91" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J81" r:id="rId92" display="https://github.com/hsluoyz"/>
+    <hyperlink ref="J82" r:id="rId93" display="https://github.com/Sarkancheg"/>
+    <hyperlink ref="K82" r:id="rId94" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J83" r:id="rId95" display="https://github.com/hsluoyz"/>
+    <hyperlink ref="K83" r:id="rId96" display="https://github.com/nnposter"/>
+    <hyperlink ref="J84" r:id="rId97" display="https://github.com/Neo23x0"/>
+    <hyperlink ref="K84" r:id="rId98" display="https://github.com/nopslider"/>
+    <hyperlink ref="L84" r:id="rId99" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J85" r:id="rId100" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J86" r:id="rId101" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J87" r:id="rId102" display="https://github.com/G10h4ck"/>
+    <hyperlink ref="K87" r:id="rId103" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J88" r:id="rId104" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J89" r:id="rId105" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J90" r:id="rId106" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J91" r:id="rId107" display="https://github.com/Eugeny1"/>
+    <hyperlink ref="K91" r:id="rId108" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="L91" r:id="rId109" display="https://github.com/RajithaRama"/>
+    <hyperlink ref="M91" r:id="rId110" display="https://github.com/e12283"/>
+    <hyperlink ref="J92" r:id="rId111" display="https://github.com/nnposter"/>
+    <hyperlink ref="K92" r:id="rId112" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J93" r:id="rId113" display="https://github.com/fyodor"/>
+    <hyperlink ref="J106" r:id="rId114" display="https://github.com/serious-cnam"/>
+    <hyperlink ref="K106" r:id="rId115" display="https://github.com/hsluoyz"/>
+    <hyperlink ref="J107" r:id="rId116" display="https://github.com/ettavolt"/>
+    <hyperlink ref="K107" r:id="rId117" display="https://github.com/hsluoyz"/>
+    <hyperlink ref="J108" r:id="rId118" display="https://github.com/hsluoyz"/>
+    <hyperlink ref="K108" r:id="rId119" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="L108" r:id="rId120" display="https://github.com/gvanem"/>
+    <hyperlink ref="J109" r:id="rId121" display="https://github.com/ohauer"/>
+    <hyperlink ref="K109" r:id="rId122" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J112" r:id="rId123" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="K112" r:id="rId124" display="https://github.com/Varunram"/>
+    <hyperlink ref="J115" r:id="rId125" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="K115" r:id="rId126" display="https://github.com/RajithaRama"/>
+    <hyperlink ref="J116" r:id="rId127" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J117" r:id="rId128" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="K117" r:id="rId129" display="https://github.com/ghost"/>
+    <hyperlink ref="J120" r:id="rId130" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="I124" r:id="rId131" display="https://github.com/BavoB"/>
+    <hyperlink ref="I125" r:id="rId132" display="https://github.com/CoriDavis"/>
+    <hyperlink ref="J124" r:id="rId133" display="https://github.com/BavoB"/>
+    <hyperlink ref="K124" r:id="rId134" display="https://github.com/CoriDavis"/>
+    <hyperlink ref="J126" r:id="rId135" display="https://github.com/legendtang"/>
+    <hyperlink ref="K126" r:id="rId136" display="https://github.com/hsluoyz"/>
+    <hyperlink ref="J127" r:id="rId137" display="https://github.com/Thilo1"/>
+    <hyperlink ref="K129" r:id="rId138" display="https://github.com/hsluoyz"/>
+    <hyperlink ref="J128" r:id="rId139" display="https://github.com/simgar"/>
+    <hyperlink ref="K127" r:id="rId140" display="https://github.com/hsluoyz"/>
+    <hyperlink ref="J129" r:id="rId141" display="https://github.com/yuriy-blinov"/>
+    <hyperlink ref="K128" r:id="rId142" display="https://github.com/hsluoyz"/>
+    <hyperlink ref="J131" r:id="rId143" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J132" r:id="rId144" display="https://github.com/TomSellers"/>
+    <hyperlink ref="K132" r:id="rId145" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J133" r:id="rId146" display="https://github.com/mcagl"/>
+    <hyperlink ref="K133" r:id="rId147" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J134" r:id="rId148" display="https://github.com/mozzer74"/>
+    <hyperlink ref="K134" r:id="rId149" display="https://github.com/hagihala"/>
+    <hyperlink ref="L134" r:id="rId150" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="M134" r:id="rId151" display="https://github.com/functio"/>
+    <hyperlink ref="N134" r:id="rId152" display="https://github.com/stonky"/>
+    <hyperlink ref="O134" r:id="rId153" display="https://github.com/levelksk"/>
+    <hyperlink ref="P134" r:id="rId154" display="https://github.com/vinnytroia"/>
+    <hyperlink ref="Q134" r:id="rId155" display="https://github.com/cybernorris"/>
+    <hyperlink ref="J135" r:id="rId156" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J137" r:id="rId157" display="https://github.com/tsimmons"/>
+    <hyperlink ref="K137" r:id="rId158" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="J138" r:id="rId159" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="K138" r:id="rId160" display="https://github.com/G10h4ck"/>
+    <hyperlink ref="J139" r:id="rId161" display="https://github.com/klondi"/>
+    <hyperlink ref="K139" r:id="rId162" display="https://github.com/dmiller-nmap"/>
+    <hyperlink ref="L139" r:id="rId163" display="https://github.com/G10h4ck"/>
+    <hyperlink ref="M139" r:id="rId164" display="https://github.com/mhlavink"/>
+    <hyperlink ref="J140" r:id="rId165" display="https://github.com/dmiller-nmap"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId92"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId166"/>
 </worksheet>
 </file>
 
@@ -8914,7 +11061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E170"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A100" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -8936,160 +11083,160 @@
         <v>576</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="25">
       <c r="B2" s="45" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="25">
       <c r="B3" s="45" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25">
       <c r="B4" s="45" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25">
       <c r="B5" s="45" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25">
       <c r="B6" s="45" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="25">
       <c r="B7" s="45" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="25">
       <c r="B8" s="45" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="25">
       <c r="B9" s="45" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25">
       <c r="B10" s="45" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25">
       <c r="B11" s="45" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="25">
       <c r="B12" s="45" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25">
       <c r="B13" s="45" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="25">
       <c r="B14" s="45" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="47" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="25">
       <c r="B16" s="45" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="25">
       <c r="B17" s="45" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="25">
       <c r="B18" s="45" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="25">
       <c r="A19" s="47" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="25">
@@ -9114,130 +11261,130 @@
     </row>
     <row r="24" spans="1:3" ht="25">
       <c r="B24" s="45" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="25">
       <c r="B25" s="45" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="25">
       <c r="B26" s="45" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="25">
       <c r="B27" s="45" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="25">
       <c r="B28" s="45" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" s="47" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="25">
       <c r="B30" s="45" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="25">
       <c r="B31" s="45" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="25">
       <c r="B32" s="45" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="25">
       <c r="B33" s="45" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="25">
       <c r="B34" s="45" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="25">
       <c r="B35" s="45" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="25">
       <c r="B36" s="45" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="25">
       <c r="B37" s="45" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="25">
       <c r="B38" s="45" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="C38" s="47" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="25">
       <c r="B39" s="45" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="25">
@@ -9257,18 +11404,18 @@
     </row>
     <row r="43" spans="1:3" ht="25">
       <c r="B43" s="45" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C43" s="47" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="B44" s="47" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C44" s="47" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -9284,285 +11431,285 @@
     </row>
     <row r="53" spans="1:3">
       <c r="B53" s="46" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C53" s="46" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="25">
       <c r="B54" s="45" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C54" s="47" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="25">
       <c r="B55" s="45" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C55" s="47" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="25">
       <c r="B56" s="45" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C56" s="47" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="25">
       <c r="B57" s="45" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C57" s="47" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="25">
       <c r="B58" s="45" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C58" s="47" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="25">
       <c r="B59" s="45" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C59" s="47" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="25">
       <c r="B60" s="45" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C60" s="47" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="25">
       <c r="B61" s="45" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C61" s="47" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="25">
       <c r="B62" s="45" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C62" s="47" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="25">
       <c r="A63" s="47" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="B63" s="45" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C63" s="47" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="25">
       <c r="B64" s="45" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C64" s="47" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="65" spans="2:3" ht="25">
       <c r="B65" s="45" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C65" s="47" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="25">
       <c r="B66" s="45" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C66" s="47" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="67" spans="2:3" ht="25">
       <c r="B67" s="45" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C67" s="47" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="68" spans="2:3" ht="25">
       <c r="B68" s="45" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C68" s="47" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="69" spans="2:3" ht="25">
       <c r="B69" s="45" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C69" s="47" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="70" spans="2:3" ht="25">
       <c r="B70" s="45" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C70" s="47" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="71" spans="2:3" ht="25">
       <c r="B71" s="45" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C71" s="47" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" s="47" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C72" s="47" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="73" spans="2:3" ht="25">
       <c r="B73" s="45" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="C73" s="47" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="74" spans="2:3" ht="25">
       <c r="B74" s="45" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="C74" s="47" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="75" spans="2:3" ht="25">
       <c r="B75" s="45" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="C75" s="47" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="76" spans="2:3" ht="25">
       <c r="B76" s="45" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="C76" s="47" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="77" spans="2:3" ht="25">
       <c r="B77" s="45" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="C77" s="47" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="78" spans="2:3" ht="25">
       <c r="B78" s="45" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="C78" s="47" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="79" spans="2:3" ht="25">
       <c r="B79" s="45" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="C79" s="47" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="80" spans="2:3" ht="25">
       <c r="B80" s="45" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="C80" s="47" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="25">
       <c r="B81" s="45" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="C81" s="47" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="25">
       <c r="B82" s="45" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C82" s="47" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="25">
       <c r="B83" s="45" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="C83" s="47" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="25">
       <c r="B84" s="45" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="C84" s="47" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="25">
       <c r="B85" s="45" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="C85" s="47" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="25">
       <c r="B86" s="45" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="C86" s="47" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="25">
       <c r="B87" s="45" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="C87" s="47" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="25">
@@ -9589,141 +11736,141 @@
     </row>
     <row r="92" spans="1:3" ht="25">
       <c r="B92" s="45" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C92" s="47" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="25">
       <c r="A93" s="47" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B93" s="45" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C93" s="47" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="25">
       <c r="B94" s="45" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C94" s="47" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="25">
       <c r="B95" s="45" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C95" s="47" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="25">
       <c r="B96" s="45" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C96" s="47" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="97" spans="2:3" ht="25">
       <c r="B97" s="45" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C97" s="47" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="98" spans="2:3" ht="25">
       <c r="B98" s="45" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C98" s="47" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="99" spans="2:3" ht="25">
       <c r="B99" s="45" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C99" s="47" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="100" spans="2:3" ht="25">
       <c r="B100" s="45" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C100" s="47" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="101" spans="2:3" ht="25">
       <c r="B101" s="45" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C101" s="47" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="102" spans="2:3" ht="25">
       <c r="B102" s="45" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C102" s="47" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="103" spans="2:3" ht="25">
       <c r="B103" s="45" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C103" s="47" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="104" spans="2:3" ht="25">
       <c r="B104" s="45" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C104" s="47" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="105" spans="2:3">
       <c r="B105" s="47" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C105" s="47" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="106" spans="2:3" ht="25">
       <c r="B106" s="45" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="C106" s="47" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="107" spans="2:3" ht="25">
       <c r="B107" s="45" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C107" s="47" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="108" spans="2:3" ht="25">
       <c r="B108" s="45" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="C108" s="47" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
     </row>
     <row r="109" spans="2:3" ht="25">
@@ -9762,34 +11909,34 @@
     </row>
     <row r="116" spans="1:3" ht="25">
       <c r="B116" s="45" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C116" s="47" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="B117" s="47" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C117" s="47" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="25">
       <c r="B118" s="45" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C118" s="47" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="25">
       <c r="B119" s="45" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="C119" s="47" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="25">
@@ -9810,7 +11957,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="46" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B125" s="47" t="s">
         <v>576</v>
@@ -9821,10 +11968,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="B126" s="47" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C126" s="47" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -9840,18 +11987,18 @@
     </row>
     <row r="132" spans="1:3" ht="25">
       <c r="B132" s="45" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C132" s="47" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="B133" s="47" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C133" s="47" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -9867,10 +12014,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="B137" s="47" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C137" s="47" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -9886,23 +12033,23 @@
     </row>
     <row r="143" spans="1:3">
       <c r="B143" s="47" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C143" s="47" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="25">
       <c r="B144" s="45" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="C144" s="47" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="46" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B147" s="47" t="s">
         <v>576</v>
@@ -9913,15 +12060,15 @@
     </row>
     <row r="148" spans="1:3">
       <c r="B148" s="47" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C148" s="47" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="47" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B150" s="47" t="s">
         <v>576</v>
@@ -9933,19 +12080,19 @@
     <row r="151" spans="1:3" ht="25">
       <c r="A151" s="47"/>
       <c r="B151" s="45" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C151" s="47" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="47"/>
       <c r="B152" s="47" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C152" s="47" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -9953,7 +12100,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="47" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B154" s="47" t="s">
         <v>576</v>
@@ -9964,130 +12111,130 @@
     </row>
     <row r="155" spans="1:3" ht="25">
       <c r="B155" s="45" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C155" s="47" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="25">
       <c r="B156" s="45" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C156" s="47" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="25">
       <c r="B157" s="45" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C157" s="47" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="25">
       <c r="B158" s="45" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C158" s="47" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="25">
       <c r="B159" s="45" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C159" s="47" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="25">
       <c r="B160" s="45" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C160" s="47" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="161" spans="2:3" ht="25">
       <c r="B161" s="45" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C161" s="47" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="162" spans="2:3" ht="25">
       <c r="B162" s="45" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C162" s="47" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="163" spans="2:3" ht="25">
       <c r="B163" s="45" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C163" s="47" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="164" spans="2:3">
       <c r="B164" s="47" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C164" s="47" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="165" spans="2:3" ht="25">
       <c r="B165" s="45" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C165" s="47" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="166" spans="2:3" ht="25">
       <c r="B166" s="45" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="C166" s="47" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="167" spans="2:3" ht="25">
       <c r="B167" s="45" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="C167" s="47" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="168" spans="2:3" ht="25">
       <c r="B168" s="45" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="C168" s="47" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="169" spans="2:3" ht="25">
       <c r="B169" s="45" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="C169" s="47" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
     </row>
     <row r="170" spans="2:3" ht="25">
       <c r="B170" s="45" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="C170" s="47" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
     </row>
   </sheetData>
@@ -11169,7 +13316,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="34" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>173</v>
@@ -11194,7 +13341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -12611,7 +14758,7 @@
         <v>404</v>
       </c>
       <c r="E56" s="38" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="57" spans="3:11">
